--- a/FichesTemps/VictorTurgeon-02.xlsx
+++ b/FichesTemps/VictorTurgeon-02.xlsx
@@ -1012,9 +1012,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>121320</xdr:colOff>
+      <xdr:colOff>120960</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>25920</xdr:rowOff>
+      <xdr:rowOff>25560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1028,7 +1028,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2303280" cy="844920"/>
+          <a:ext cx="2302920" cy="844560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1054,9 +1054,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>531000</xdr:colOff>
+      <xdr:colOff>530640</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>216360</xdr:rowOff>
+      <xdr:rowOff>216000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1070,7 +1070,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2405520" cy="788040"/>
+          <a:ext cx="2405160" cy="787680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1096,9 +1096,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>531000</xdr:colOff>
+      <xdr:colOff>530640</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>216360</xdr:rowOff>
+      <xdr:rowOff>216000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1112,7 +1112,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2405520" cy="788040"/>
+          <a:ext cx="2405160" cy="787680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1138,9 +1138,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>531000</xdr:colOff>
+      <xdr:colOff>530640</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>216360</xdr:rowOff>
+      <xdr:rowOff>216000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1154,7 +1154,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2405520" cy="788040"/>
+          <a:ext cx="2405160" cy="787680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1180,9 +1180,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>531000</xdr:colOff>
+      <xdr:colOff>530640</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>216360</xdr:rowOff>
+      <xdr:rowOff>216000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1196,7 +1196,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2405520" cy="788040"/>
+          <a:ext cx="2405160" cy="787680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1222,9 +1222,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>531000</xdr:colOff>
+      <xdr:colOff>530640</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>216360</xdr:rowOff>
+      <xdr:rowOff>216000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1238,7 +1238,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2405520" cy="788040"/>
+          <a:ext cx="2405160" cy="787680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1261,7 +1261,7 @@
   <dimension ref="A1:F463"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1346,7 +1346,7 @@
       </c>
       <c r="C9" s="23" t="n">
         <f aca="false">SUM(C11:C463)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D9" s="24" t="s">
         <v>7</v>
@@ -1375,7 +1375,7 @@
       </c>
       <c r="B11" s="31"/>
       <c r="C11" s="32" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D11" s="31" t="s">
         <v>12</v>

--- a/FichesTemps/VictorTurgeon-02.xlsx
+++ b/FichesTemps/VictorTurgeon-02.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="80">
   <si>
     <t xml:space="preserve">Feuille de temps - 420-6DY-HY Projets</t>
   </si>
@@ -116,6 +116,18 @@
   </si>
   <si>
     <t xml:space="preserve">Préparation de l’environnement de développement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31-01-2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design d’interface graphique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refactorisation du diagramme de classe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modification du diagramme de classe détaillé</t>
   </si>
   <si>
     <t xml:space="preserve">Fiche d'évaluation du travail d'équipe</t>
@@ -1012,9 +1024,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>120960</xdr:colOff>
+      <xdr:colOff>120600</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>25560</xdr:rowOff>
+      <xdr:rowOff>25200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1028,7 +1040,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2302920" cy="844560"/>
+          <a:ext cx="2302560" cy="844200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1054,9 +1066,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>530640</xdr:colOff>
+      <xdr:colOff>530280</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>216000</xdr:rowOff>
+      <xdr:rowOff>215640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1070,7 +1082,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2405160" cy="787680"/>
+          <a:ext cx="2404800" cy="787320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1096,9 +1108,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>530640</xdr:colOff>
+      <xdr:colOff>530280</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>216000</xdr:rowOff>
+      <xdr:rowOff>215640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1112,7 +1124,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2405160" cy="787680"/>
+          <a:ext cx="2404800" cy="787320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1138,9 +1150,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>530640</xdr:colOff>
+      <xdr:colOff>530280</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>216000</xdr:rowOff>
+      <xdr:rowOff>215640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1154,7 +1166,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2405160" cy="787680"/>
+          <a:ext cx="2404800" cy="787320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1180,9 +1192,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>530640</xdr:colOff>
+      <xdr:colOff>530280</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>216000</xdr:rowOff>
+      <xdr:rowOff>215640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1196,7 +1208,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2405160" cy="787680"/>
+          <a:ext cx="2404800" cy="787320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1222,9 +1234,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>530640</xdr:colOff>
+      <xdr:colOff>530280</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>216000</xdr:rowOff>
+      <xdr:rowOff>215640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1238,7 +1250,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2405160" cy="787680"/>
+          <a:ext cx="2404800" cy="787320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1258,13 +1270,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F463"/>
+  <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="76.89"/>
@@ -1345,8 +1357,8 @@
         <v>6</v>
       </c>
       <c r="C9" s="23" t="n">
-        <f aca="false">SUM(C11:C463)</f>
-        <v>6</v>
+        <f aca="false">SUM(C11:C462)</f>
+        <v>9</v>
       </c>
       <c r="D9" s="24" t="s">
         <v>7</v>
@@ -1388,22 +1400,40 @@
       <c r="D12" s="34"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="33"/>
+      <c r="A13" s="33" t="s">
+        <v>13</v>
+      </c>
       <c r="B13" s="34"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="34"/>
+      <c r="C13" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="33"/>
+      <c r="A14" s="33" t="s">
+        <v>13</v>
+      </c>
       <c r="B14" s="34"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="34"/>
+      <c r="C14" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="33"/>
+      <c r="A15" s="33" t="s">
+        <v>13</v>
+      </c>
       <c r="B15" s="34"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="34"/>
+      <c r="C15" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="33"/>
@@ -1465,2634 +1495,2629 @@
       <c r="C25" s="35"/>
       <c r="D25" s="34"/>
     </row>
-    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="33"/>
       <c r="B26" s="34"/>
       <c r="C26" s="35"/>
       <c r="D26" s="34"/>
     </row>
-    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="33"/>
       <c r="B27" s="34"/>
       <c r="C27" s="35"/>
       <c r="D27" s="34"/>
     </row>
-    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="33"/>
       <c r="B28" s="34"/>
       <c r="C28" s="35"/>
       <c r="D28" s="34"/>
     </row>
-    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="33"/>
       <c r="B29" s="34"/>
       <c r="C29" s="35"/>
       <c r="D29" s="34"/>
     </row>
-    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="33"/>
       <c r="B30" s="34"/>
       <c r="C30" s="35"/>
       <c r="D30" s="34"/>
     </row>
-    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="33"/>
       <c r="B31" s="34"/>
       <c r="C31" s="35"/>
       <c r="D31" s="34"/>
     </row>
-    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="33"/>
       <c r="B32" s="34"/>
       <c r="C32" s="35"/>
       <c r="D32" s="34"/>
     </row>
-    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="33"/>
       <c r="B33" s="34"/>
       <c r="C33" s="35"/>
       <c r="D33" s="34"/>
     </row>
-    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="33"/>
       <c r="B34" s="34"/>
       <c r="C34" s="35"/>
       <c r="D34" s="34"/>
     </row>
-    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="33"/>
       <c r="B35" s="34"/>
       <c r="C35" s="35"/>
       <c r="D35" s="34"/>
     </row>
-    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="33"/>
       <c r="B36" s="34"/>
       <c r="C36" s="35"/>
       <c r="D36" s="34"/>
     </row>
-    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="33"/>
       <c r="B37" s="34"/>
       <c r="C37" s="35"/>
       <c r="D37" s="34"/>
     </row>
-    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="33"/>
       <c r="B38" s="34"/>
       <c r="C38" s="35"/>
       <c r="D38" s="34"/>
     </row>
-    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="33"/>
       <c r="B39" s="34"/>
       <c r="C39" s="35"/>
       <c r="D39" s="34"/>
     </row>
-    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="33"/>
       <c r="B40" s="34"/>
       <c r="C40" s="35"/>
       <c r="D40" s="34"/>
     </row>
-    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="33"/>
       <c r="B41" s="34"/>
       <c r="C41" s="35"/>
       <c r="D41" s="34"/>
     </row>
-    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="33"/>
       <c r="B42" s="34"/>
       <c r="C42" s="35"/>
       <c r="D42" s="34"/>
     </row>
-    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="33"/>
       <c r="B43" s="34"/>
       <c r="C43" s="35"/>
       <c r="D43" s="34"/>
     </row>
-    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="33"/>
       <c r="B44" s="34"/>
       <c r="C44" s="35"/>
       <c r="D44" s="34"/>
     </row>
-    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="33"/>
       <c r="B45" s="34"/>
       <c r="C45" s="35"/>
       <c r="D45" s="34"/>
     </row>
-    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="33"/>
       <c r="B46" s="34"/>
       <c r="C46" s="35"/>
       <c r="D46" s="34"/>
     </row>
-    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="33"/>
       <c r="B47" s="34"/>
       <c r="C47" s="35"/>
       <c r="D47" s="34"/>
     </row>
-    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="33"/>
       <c r="B48" s="34"/>
       <c r="C48" s="35"/>
       <c r="D48" s="34"/>
     </row>
-    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="33"/>
       <c r="B49" s="34"/>
       <c r="C49" s="35"/>
       <c r="D49" s="34"/>
     </row>
-    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="33"/>
       <c r="B50" s="34"/>
       <c r="C50" s="35"/>
       <c r="D50" s="34"/>
     </row>
-    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="33"/>
       <c r="B51" s="34"/>
       <c r="C51" s="35"/>
       <c r="D51" s="34"/>
     </row>
-    <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="33"/>
       <c r="B52" s="34"/>
       <c r="C52" s="35"/>
       <c r="D52" s="34"/>
     </row>
-    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="33"/>
       <c r="B53" s="34"/>
       <c r="C53" s="35"/>
       <c r="D53" s="34"/>
     </row>
-    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="33"/>
       <c r="B54" s="34"/>
       <c r="C54" s="35"/>
       <c r="D54" s="34"/>
     </row>
-    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="33"/>
       <c r="B55" s="34"/>
       <c r="C55" s="35"/>
       <c r="D55" s="34"/>
     </row>
-    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="33"/>
       <c r="B56" s="34"/>
       <c r="C56" s="35"/>
       <c r="D56" s="34"/>
     </row>
-    <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="33"/>
       <c r="B57" s="34"/>
       <c r="C57" s="35"/>
       <c r="D57" s="34"/>
     </row>
-    <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="33"/>
       <c r="B58" s="34"/>
       <c r="C58" s="35"/>
       <c r="D58" s="34"/>
     </row>
-    <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="33"/>
       <c r="B59" s="34"/>
       <c r="C59" s="35"/>
       <c r="D59" s="34"/>
     </row>
-    <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="33"/>
       <c r="B60" s="34"/>
       <c r="C60" s="35"/>
       <c r="D60" s="34"/>
     </row>
-    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="33"/>
       <c r="B61" s="34"/>
       <c r="C61" s="35"/>
       <c r="D61" s="34"/>
     </row>
-    <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="33"/>
       <c r="B62" s="34"/>
       <c r="C62" s="35"/>
       <c r="D62" s="34"/>
     </row>
-    <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="33"/>
       <c r="B63" s="34"/>
       <c r="C63" s="35"/>
       <c r="D63" s="34"/>
     </row>
-    <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="33"/>
       <c r="B64" s="34"/>
       <c r="C64" s="35"/>
       <c r="D64" s="34"/>
     </row>
-    <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="33"/>
       <c r="B65" s="34"/>
       <c r="C65" s="35"/>
       <c r="D65" s="34"/>
     </row>
-    <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="33"/>
       <c r="B66" s="34"/>
       <c r="C66" s="35"/>
       <c r="D66" s="34"/>
     </row>
-    <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="33"/>
       <c r="B67" s="34"/>
       <c r="C67" s="35"/>
       <c r="D67" s="34"/>
     </row>
-    <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="33"/>
       <c r="B68" s="34"/>
       <c r="C68" s="35"/>
       <c r="D68" s="34"/>
     </row>
-    <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="33"/>
       <c r="B69" s="34"/>
       <c r="C69" s="35"/>
       <c r="D69" s="34"/>
     </row>
-    <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="33"/>
       <c r="B70" s="34"/>
       <c r="C70" s="35"/>
       <c r="D70" s="34"/>
     </row>
-    <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="33"/>
       <c r="B71" s="34"/>
       <c r="C71" s="35"/>
       <c r="D71" s="34"/>
     </row>
-    <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="33"/>
       <c r="B72" s="34"/>
       <c r="C72" s="35"/>
       <c r="D72" s="34"/>
     </row>
-    <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="33"/>
       <c r="B73" s="34"/>
       <c r="C73" s="35"/>
       <c r="D73" s="34"/>
     </row>
-    <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="33"/>
       <c r="B74" s="34"/>
       <c r="C74" s="35"/>
       <c r="D74" s="34"/>
     </row>
-    <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="33"/>
       <c r="B75" s="34"/>
       <c r="C75" s="35"/>
       <c r="D75" s="34"/>
     </row>
-    <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="33"/>
       <c r="B76" s="34"/>
       <c r="C76" s="35"/>
       <c r="D76" s="34"/>
     </row>
-    <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="33"/>
       <c r="B77" s="34"/>
       <c r="C77" s="35"/>
       <c r="D77" s="34"/>
     </row>
-    <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="33"/>
       <c r="B78" s="34"/>
       <c r="C78" s="35"/>
       <c r="D78" s="34"/>
     </row>
-    <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="33"/>
       <c r="B79" s="34"/>
       <c r="C79" s="35"/>
       <c r="D79" s="34"/>
     </row>
-    <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="33"/>
       <c r="B80" s="34"/>
       <c r="C80" s="35"/>
       <c r="D80" s="34"/>
     </row>
-    <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="33"/>
       <c r="B81" s="34"/>
       <c r="C81" s="35"/>
       <c r="D81" s="34"/>
     </row>
-    <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="33"/>
       <c r="B82" s="34"/>
       <c r="C82" s="35"/>
       <c r="D82" s="34"/>
     </row>
-    <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="33"/>
       <c r="B83" s="34"/>
       <c r="C83" s="35"/>
       <c r="D83" s="34"/>
     </row>
-    <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="33"/>
       <c r="B84" s="34"/>
       <c r="C84" s="35"/>
       <c r="D84" s="34"/>
     </row>
-    <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="33"/>
       <c r="B85" s="34"/>
       <c r="C85" s="35"/>
       <c r="D85" s="34"/>
     </row>
-    <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="33"/>
       <c r="B86" s="34"/>
       <c r="C86" s="35"/>
       <c r="D86" s="34"/>
     </row>
-    <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="33"/>
       <c r="B87" s="34"/>
       <c r="C87" s="35"/>
       <c r="D87" s="34"/>
     </row>
-    <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="33"/>
       <c r="B88" s="34"/>
       <c r="C88" s="35"/>
       <c r="D88" s="34"/>
     </row>
-    <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="33"/>
       <c r="B89" s="34"/>
       <c r="C89" s="35"/>
       <c r="D89" s="34"/>
     </row>
-    <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="33"/>
       <c r="B90" s="34"/>
       <c r="C90" s="35"/>
       <c r="D90" s="34"/>
     </row>
-    <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="33"/>
       <c r="B91" s="34"/>
       <c r="C91" s="35"/>
       <c r="D91" s="34"/>
     </row>
-    <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="33"/>
       <c r="B92" s="34"/>
       <c r="C92" s="35"/>
       <c r="D92" s="34"/>
     </row>
-    <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="33"/>
       <c r="B93" s="34"/>
       <c r="C93" s="35"/>
       <c r="D93" s="34"/>
     </row>
-    <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="33"/>
       <c r="B94" s="34"/>
       <c r="C94" s="35"/>
       <c r="D94" s="34"/>
     </row>
-    <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="33"/>
       <c r="B95" s="34"/>
       <c r="C95" s="35"/>
       <c r="D95" s="34"/>
     </row>
-    <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="33"/>
       <c r="B96" s="34"/>
       <c r="C96" s="35"/>
       <c r="D96" s="34"/>
     </row>
-    <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="33"/>
       <c r="B97" s="34"/>
       <c r="C97" s="35"/>
       <c r="D97" s="34"/>
     </row>
-    <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="33"/>
       <c r="B98" s="34"/>
       <c r="C98" s="35"/>
       <c r="D98" s="34"/>
     </row>
-    <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="33"/>
       <c r="B99" s="34"/>
       <c r="C99" s="35"/>
       <c r="D99" s="34"/>
     </row>
-    <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="33"/>
       <c r="B100" s="34"/>
       <c r="C100" s="35"/>
       <c r="D100" s="34"/>
     </row>
-    <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="33"/>
       <c r="B101" s="34"/>
       <c r="C101" s="35"/>
       <c r="D101" s="34"/>
     </row>
-    <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="33"/>
       <c r="B102" s="34"/>
       <c r="C102" s="35"/>
       <c r="D102" s="34"/>
     </row>
-    <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="33"/>
       <c r="B103" s="34"/>
       <c r="C103" s="35"/>
       <c r="D103" s="34"/>
     </row>
-    <row r="104" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="33"/>
       <c r="B104" s="34"/>
       <c r="C104" s="35"/>
       <c r="D104" s="34"/>
     </row>
-    <row r="105" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="33"/>
       <c r="B105" s="34"/>
       <c r="C105" s="35"/>
       <c r="D105" s="34"/>
     </row>
-    <row r="106" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="33"/>
       <c r="B106" s="34"/>
       <c r="C106" s="35"/>
       <c r="D106" s="34"/>
     </row>
-    <row r="107" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="33"/>
       <c r="B107" s="34"/>
       <c r="C107" s="35"/>
       <c r="D107" s="34"/>
     </row>
-    <row r="108" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="33"/>
       <c r="B108" s="34"/>
       <c r="C108" s="35"/>
       <c r="D108" s="34"/>
     </row>
-    <row r="109" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="33"/>
       <c r="B109" s="34"/>
       <c r="C109" s="35"/>
       <c r="D109" s="34"/>
     </row>
-    <row r="110" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="33"/>
       <c r="B110" s="34"/>
       <c r="C110" s="35"/>
       <c r="D110" s="34"/>
     </row>
-    <row r="111" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="33"/>
       <c r="B111" s="34"/>
       <c r="C111" s="35"/>
       <c r="D111" s="34"/>
     </row>
-    <row r="112" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="33"/>
       <c r="B112" s="34"/>
       <c r="C112" s="35"/>
       <c r="D112" s="34"/>
     </row>
-    <row r="113" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="33"/>
       <c r="B113" s="34"/>
       <c r="C113" s="35"/>
       <c r="D113" s="34"/>
     </row>
-    <row r="114" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="33"/>
       <c r="B114" s="34"/>
       <c r="C114" s="35"/>
       <c r="D114" s="34"/>
     </row>
-    <row r="115" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="33"/>
       <c r="B115" s="34"/>
       <c r="C115" s="35"/>
       <c r="D115" s="34"/>
     </row>
-    <row r="116" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="33"/>
       <c r="B116" s="34"/>
       <c r="C116" s="35"/>
       <c r="D116" s="34"/>
     </row>
-    <row r="117" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="33"/>
       <c r="B117" s="34"/>
       <c r="C117" s="35"/>
       <c r="D117" s="34"/>
     </row>
-    <row r="118" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="33"/>
       <c r="B118" s="34"/>
       <c r="C118" s="35"/>
       <c r="D118" s="34"/>
     </row>
-    <row r="119" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="33"/>
       <c r="B119" s="34"/>
       <c r="C119" s="35"/>
       <c r="D119" s="34"/>
     </row>
-    <row r="120" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="33"/>
       <c r="B120" s="34"/>
       <c r="C120" s="35"/>
       <c r="D120" s="34"/>
     </row>
-    <row r="121" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="33"/>
       <c r="B121" s="34"/>
       <c r="C121" s="35"/>
       <c r="D121" s="34"/>
     </row>
-    <row r="122" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="33"/>
       <c r="B122" s="34"/>
       <c r="C122" s="35"/>
       <c r="D122" s="34"/>
     </row>
-    <row r="123" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="33"/>
       <c r="B123" s="34"/>
       <c r="C123" s="35"/>
       <c r="D123" s="34"/>
     </row>
-    <row r="124" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="33"/>
       <c r="B124" s="34"/>
       <c r="C124" s="35"/>
       <c r="D124" s="34"/>
     </row>
-    <row r="125" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="33"/>
       <c r="B125" s="34"/>
       <c r="C125" s="35"/>
       <c r="D125" s="34"/>
     </row>
-    <row r="126" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="33"/>
       <c r="B126" s="34"/>
       <c r="C126" s="35"/>
       <c r="D126" s="34"/>
     </row>
-    <row r="127" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="33"/>
       <c r="B127" s="34"/>
       <c r="C127" s="35"/>
       <c r="D127" s="34"/>
     </row>
-    <row r="128" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="33"/>
       <c r="B128" s="34"/>
       <c r="C128" s="35"/>
       <c r="D128" s="34"/>
     </row>
-    <row r="129" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="33"/>
       <c r="B129" s="34"/>
       <c r="C129" s="35"/>
       <c r="D129" s="34"/>
     </row>
-    <row r="130" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="33"/>
       <c r="B130" s="34"/>
       <c r="C130" s="35"/>
       <c r="D130" s="34"/>
     </row>
-    <row r="131" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="33"/>
       <c r="B131" s="34"/>
       <c r="C131" s="35"/>
       <c r="D131" s="34"/>
     </row>
-    <row r="132" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="33"/>
       <c r="B132" s="34"/>
       <c r="C132" s="35"/>
       <c r="D132" s="34"/>
     </row>
-    <row r="133" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="33"/>
       <c r="B133" s="34"/>
       <c r="C133" s="35"/>
       <c r="D133" s="34"/>
     </row>
-    <row r="134" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="33"/>
       <c r="B134" s="34"/>
       <c r="C134" s="35"/>
       <c r="D134" s="34"/>
     </row>
-    <row r="135" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="33"/>
       <c r="B135" s="34"/>
       <c r="C135" s="35"/>
       <c r="D135" s="34"/>
     </row>
-    <row r="136" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="33"/>
       <c r="B136" s="34"/>
       <c r="C136" s="35"/>
       <c r="D136" s="34"/>
     </row>
-    <row r="137" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="33"/>
       <c r="B137" s="34"/>
       <c r="C137" s="35"/>
       <c r="D137" s="34"/>
     </row>
-    <row r="138" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="33"/>
       <c r="B138" s="34"/>
       <c r="C138" s="35"/>
       <c r="D138" s="34"/>
     </row>
-    <row r="139" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="33"/>
       <c r="B139" s="34"/>
       <c r="C139" s="35"/>
       <c r="D139" s="34"/>
     </row>
-    <row r="140" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="33"/>
       <c r="B140" s="34"/>
       <c r="C140" s="35"/>
       <c r="D140" s="34"/>
     </row>
-    <row r="141" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="33"/>
       <c r="B141" s="34"/>
       <c r="C141" s="35"/>
       <c r="D141" s="34"/>
     </row>
-    <row r="142" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="33"/>
       <c r="B142" s="34"/>
       <c r="C142" s="35"/>
       <c r="D142" s="34"/>
     </row>
-    <row r="143" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="33"/>
       <c r="B143" s="34"/>
       <c r="C143" s="35"/>
       <c r="D143" s="34"/>
     </row>
-    <row r="144" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="33"/>
       <c r="B144" s="34"/>
       <c r="C144" s="35"/>
       <c r="D144" s="34"/>
     </row>
-    <row r="145" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="33"/>
       <c r="B145" s="34"/>
       <c r="C145" s="35"/>
       <c r="D145" s="34"/>
     </row>
-    <row r="146" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="33"/>
       <c r="B146" s="34"/>
       <c r="C146" s="35"/>
       <c r="D146" s="34"/>
     </row>
-    <row r="147" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="33"/>
       <c r="B147" s="34"/>
       <c r="C147" s="35"/>
       <c r="D147" s="34"/>
     </row>
-    <row r="148" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="33"/>
       <c r="B148" s="34"/>
       <c r="C148" s="35"/>
       <c r="D148" s="34"/>
     </row>
-    <row r="149" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="33"/>
       <c r="B149" s="34"/>
       <c r="C149" s="35"/>
       <c r="D149" s="34"/>
     </row>
-    <row r="150" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="33"/>
       <c r="B150" s="34"/>
       <c r="C150" s="35"/>
       <c r="D150" s="34"/>
     </row>
-    <row r="151" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="33"/>
       <c r="B151" s="34"/>
       <c r="C151" s="35"/>
       <c r="D151" s="34"/>
     </row>
-    <row r="152" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="33"/>
       <c r="B152" s="34"/>
       <c r="C152" s="35"/>
       <c r="D152" s="34"/>
     </row>
-    <row r="153" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="33"/>
       <c r="B153" s="34"/>
       <c r="C153" s="35"/>
       <c r="D153" s="34"/>
     </row>
-    <row r="154" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="33"/>
       <c r="B154" s="34"/>
       <c r="C154" s="35"/>
       <c r="D154" s="34"/>
     </row>
-    <row r="155" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="33"/>
       <c r="B155" s="34"/>
       <c r="C155" s="35"/>
       <c r="D155" s="34"/>
     </row>
-    <row r="156" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="33"/>
       <c r="B156" s="34"/>
       <c r="C156" s="35"/>
       <c r="D156" s="34"/>
     </row>
-    <row r="157" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="33"/>
       <c r="B157" s="34"/>
       <c r="C157" s="35"/>
       <c r="D157" s="34"/>
     </row>
-    <row r="158" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="33"/>
       <c r="B158" s="34"/>
       <c r="C158" s="35"/>
       <c r="D158" s="34"/>
     </row>
-    <row r="159" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="33"/>
       <c r="B159" s="34"/>
       <c r="C159" s="35"/>
       <c r="D159" s="34"/>
     </row>
-    <row r="160" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="33"/>
       <c r="B160" s="34"/>
       <c r="C160" s="35"/>
       <c r="D160" s="34"/>
     </row>
-    <row r="161" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="33"/>
       <c r="B161" s="34"/>
       <c r="C161" s="35"/>
       <c r="D161" s="34"/>
     </row>
-    <row r="162" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="33"/>
       <c r="B162" s="34"/>
       <c r="C162" s="35"/>
       <c r="D162" s="34"/>
     </row>
-    <row r="163" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="33"/>
       <c r="B163" s="34"/>
       <c r="C163" s="35"/>
       <c r="D163" s="34"/>
     </row>
-    <row r="164" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="33"/>
       <c r="B164" s="34"/>
       <c r="C164" s="35"/>
       <c r="D164" s="34"/>
     </row>
-    <row r="165" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="33"/>
       <c r="B165" s="34"/>
       <c r="C165" s="35"/>
       <c r="D165" s="34"/>
     </row>
-    <row r="166" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="33"/>
       <c r="B166" s="34"/>
       <c r="C166" s="35"/>
       <c r="D166" s="34"/>
     </row>
-    <row r="167" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="33"/>
       <c r="B167" s="34"/>
       <c r="C167" s="35"/>
       <c r="D167" s="34"/>
     </row>
-    <row r="168" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="33"/>
       <c r="B168" s="34"/>
       <c r="C168" s="35"/>
       <c r="D168" s="34"/>
     </row>
-    <row r="169" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="33"/>
       <c r="B169" s="34"/>
       <c r="C169" s="35"/>
       <c r="D169" s="34"/>
     </row>
-    <row r="170" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="33"/>
       <c r="B170" s="34"/>
       <c r="C170" s="35"/>
       <c r="D170" s="34"/>
     </row>
-    <row r="171" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="33"/>
       <c r="B171" s="34"/>
       <c r="C171" s="35"/>
       <c r="D171" s="34"/>
     </row>
-    <row r="172" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="33"/>
       <c r="B172" s="34"/>
       <c r="C172" s="35"/>
       <c r="D172" s="34"/>
     </row>
-    <row r="173" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="33"/>
       <c r="B173" s="34"/>
       <c r="C173" s="35"/>
       <c r="D173" s="34"/>
     </row>
-    <row r="174" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="33"/>
       <c r="B174" s="34"/>
       <c r="C174" s="35"/>
       <c r="D174" s="34"/>
     </row>
-    <row r="175" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="33"/>
       <c r="B175" s="34"/>
       <c r="C175" s="35"/>
       <c r="D175" s="34"/>
     </row>
-    <row r="176" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="33"/>
       <c r="B176" s="34"/>
       <c r="C176" s="35"/>
       <c r="D176" s="34"/>
     </row>
-    <row r="177" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="33"/>
       <c r="B177" s="34"/>
       <c r="C177" s="35"/>
       <c r="D177" s="34"/>
     </row>
-    <row r="178" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="33"/>
       <c r="B178" s="34"/>
       <c r="C178" s="35"/>
       <c r="D178" s="34"/>
     </row>
-    <row r="179" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="33"/>
       <c r="B179" s="34"/>
       <c r="C179" s="35"/>
       <c r="D179" s="34"/>
     </row>
-    <row r="180" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="33"/>
       <c r="B180" s="34"/>
       <c r="C180" s="35"/>
       <c r="D180" s="34"/>
     </row>
-    <row r="181" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="33"/>
       <c r="B181" s="34"/>
       <c r="C181" s="35"/>
       <c r="D181" s="34"/>
     </row>
-    <row r="182" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="33"/>
       <c r="B182" s="34"/>
       <c r="C182" s="35"/>
       <c r="D182" s="34"/>
     </row>
-    <row r="183" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="33"/>
       <c r="B183" s="34"/>
       <c r="C183" s="35"/>
       <c r="D183" s="34"/>
     </row>
-    <row r="184" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="33"/>
       <c r="B184" s="34"/>
       <c r="C184" s="35"/>
       <c r="D184" s="34"/>
     </row>
-    <row r="185" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="33"/>
       <c r="B185" s="34"/>
       <c r="C185" s="35"/>
       <c r="D185" s="34"/>
     </row>
-    <row r="186" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="33"/>
       <c r="B186" s="34"/>
       <c r="C186" s="35"/>
       <c r="D186" s="34"/>
     </row>
-    <row r="187" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="33"/>
       <c r="B187" s="34"/>
       <c r="C187" s="35"/>
       <c r="D187" s="34"/>
     </row>
-    <row r="188" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="33"/>
       <c r="B188" s="34"/>
       <c r="C188" s="35"/>
       <c r="D188" s="34"/>
     </row>
-    <row r="189" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="33"/>
       <c r="B189" s="34"/>
       <c r="C189" s="35"/>
       <c r="D189" s="34"/>
     </row>
-    <row r="190" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="33"/>
       <c r="B190" s="34"/>
       <c r="C190" s="35"/>
       <c r="D190" s="34"/>
     </row>
-    <row r="191" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="33"/>
       <c r="B191" s="34"/>
       <c r="C191" s="35"/>
       <c r="D191" s="34"/>
     </row>
-    <row r="192" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="33"/>
       <c r="B192" s="34"/>
       <c r="C192" s="35"/>
       <c r="D192" s="34"/>
     </row>
-    <row r="193" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="33"/>
       <c r="B193" s="34"/>
       <c r="C193" s="35"/>
       <c r="D193" s="34"/>
     </row>
-    <row r="194" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="33"/>
       <c r="B194" s="34"/>
       <c r="C194" s="35"/>
       <c r="D194" s="34"/>
     </row>
-    <row r="195" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="33"/>
       <c r="B195" s="34"/>
       <c r="C195" s="35"/>
       <c r="D195" s="34"/>
     </row>
-    <row r="196" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="33"/>
       <c r="B196" s="34"/>
       <c r="C196" s="35"/>
       <c r="D196" s="34"/>
     </row>
-    <row r="197" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="33"/>
       <c r="B197" s="34"/>
       <c r="C197" s="35"/>
       <c r="D197" s="34"/>
     </row>
-    <row r="198" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="33"/>
       <c r="B198" s="34"/>
       <c r="C198" s="35"/>
       <c r="D198" s="34"/>
     </row>
-    <row r="199" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="33"/>
       <c r="B199" s="34"/>
       <c r="C199" s="35"/>
       <c r="D199" s="34"/>
     </row>
-    <row r="200" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="33"/>
       <c r="B200" s="34"/>
       <c r="C200" s="35"/>
       <c r="D200" s="34"/>
     </row>
-    <row r="201" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="33"/>
       <c r="B201" s="34"/>
       <c r="C201" s="35"/>
       <c r="D201" s="34"/>
     </row>
-    <row r="202" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="33"/>
       <c r="B202" s="34"/>
       <c r="C202" s="35"/>
       <c r="D202" s="34"/>
     </row>
-    <row r="203" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="33"/>
       <c r="B203" s="34"/>
       <c r="C203" s="35"/>
       <c r="D203" s="34"/>
     </row>
-    <row r="204" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="33"/>
       <c r="B204" s="34"/>
       <c r="C204" s="35"/>
       <c r="D204" s="34"/>
     </row>
-    <row r="205" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="33"/>
       <c r="B205" s="34"/>
       <c r="C205" s="35"/>
       <c r="D205" s="34"/>
     </row>
-    <row r="206" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="33"/>
       <c r="B206" s="34"/>
       <c r="C206" s="35"/>
       <c r="D206" s="34"/>
     </row>
-    <row r="207" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="33"/>
       <c r="B207" s="34"/>
       <c r="C207" s="35"/>
       <c r="D207" s="34"/>
     </row>
-    <row r="208" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="33"/>
       <c r="B208" s="34"/>
       <c r="C208" s="35"/>
       <c r="D208" s="34"/>
     </row>
-    <row r="209" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="33"/>
       <c r="B209" s="34"/>
       <c r="C209" s="35"/>
       <c r="D209" s="34"/>
     </row>
-    <row r="210" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="33"/>
       <c r="B210" s="34"/>
       <c r="C210" s="35"/>
       <c r="D210" s="34"/>
     </row>
-    <row r="211" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="33"/>
       <c r="B211" s="34"/>
       <c r="C211" s="35"/>
       <c r="D211" s="34"/>
     </row>
-    <row r="212" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="33"/>
       <c r="B212" s="34"/>
       <c r="C212" s="35"/>
       <c r="D212" s="34"/>
     </row>
-    <row r="213" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="33"/>
       <c r="B213" s="34"/>
       <c r="C213" s="35"/>
       <c r="D213" s="34"/>
     </row>
-    <row r="214" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="33"/>
       <c r="B214" s="34"/>
       <c r="C214" s="35"/>
       <c r="D214" s="34"/>
     </row>
-    <row r="215" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="33"/>
       <c r="B215" s="34"/>
       <c r="C215" s="35"/>
       <c r="D215" s="34"/>
     </row>
-    <row r="216" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="33"/>
       <c r="B216" s="34"/>
       <c r="C216" s="35"/>
       <c r="D216" s="34"/>
     </row>
-    <row r="217" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="33"/>
       <c r="B217" s="34"/>
       <c r="C217" s="35"/>
       <c r="D217" s="34"/>
     </row>
-    <row r="218" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="33"/>
       <c r="B218" s="34"/>
       <c r="C218" s="35"/>
       <c r="D218" s="34"/>
     </row>
-    <row r="219" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="33"/>
       <c r="B219" s="34"/>
       <c r="C219" s="35"/>
       <c r="D219" s="34"/>
     </row>
-    <row r="220" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="33"/>
       <c r="B220" s="34"/>
       <c r="C220" s="35"/>
       <c r="D220" s="34"/>
     </row>
-    <row r="221" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="33"/>
       <c r="B221" s="34"/>
       <c r="C221" s="35"/>
       <c r="D221" s="34"/>
     </row>
-    <row r="222" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="33"/>
       <c r="B222" s="34"/>
       <c r="C222" s="35"/>
       <c r="D222" s="34"/>
     </row>
-    <row r="223" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="33"/>
       <c r="B223" s="34"/>
       <c r="C223" s="35"/>
       <c r="D223" s="34"/>
     </row>
-    <row r="224" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="33"/>
       <c r="B224" s="34"/>
       <c r="C224" s="35"/>
       <c r="D224" s="34"/>
     </row>
-    <row r="225" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="33"/>
       <c r="B225" s="34"/>
       <c r="C225" s="35"/>
       <c r="D225" s="34"/>
     </row>
-    <row r="226" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="33"/>
       <c r="B226" s="34"/>
       <c r="C226" s="35"/>
       <c r="D226" s="34"/>
     </row>
-    <row r="227" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="33"/>
       <c r="B227" s="34"/>
       <c r="C227" s="35"/>
       <c r="D227" s="34"/>
     </row>
-    <row r="228" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="33"/>
       <c r="B228" s="34"/>
       <c r="C228" s="35"/>
       <c r="D228" s="34"/>
     </row>
-    <row r="229" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="33"/>
       <c r="B229" s="34"/>
       <c r="C229" s="35"/>
       <c r="D229" s="34"/>
     </row>
-    <row r="230" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="33"/>
       <c r="B230" s="34"/>
       <c r="C230" s="35"/>
       <c r="D230" s="34"/>
     </row>
-    <row r="231" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="33"/>
       <c r="B231" s="34"/>
       <c r="C231" s="35"/>
       <c r="D231" s="34"/>
     </row>
-    <row r="232" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="33"/>
       <c r="B232" s="34"/>
       <c r="C232" s="35"/>
       <c r="D232" s="34"/>
     </row>
-    <row r="233" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="33"/>
       <c r="B233" s="34"/>
       <c r="C233" s="35"/>
       <c r="D233" s="34"/>
     </row>
-    <row r="234" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="33"/>
       <c r="B234" s="34"/>
       <c r="C234" s="35"/>
       <c r="D234" s="34"/>
     </row>
-    <row r="235" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="33"/>
       <c r="B235" s="34"/>
       <c r="C235" s="35"/>
       <c r="D235" s="34"/>
     </row>
-    <row r="236" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="33"/>
       <c r="B236" s="34"/>
       <c r="C236" s="35"/>
       <c r="D236" s="34"/>
     </row>
-    <row r="237" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="33"/>
       <c r="B237" s="34"/>
       <c r="C237" s="35"/>
       <c r="D237" s="34"/>
     </row>
-    <row r="238" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="33"/>
       <c r="B238" s="34"/>
       <c r="C238" s="35"/>
       <c r="D238" s="34"/>
     </row>
-    <row r="239" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="33"/>
       <c r="B239" s="34"/>
       <c r="C239" s="35"/>
       <c r="D239" s="34"/>
     </row>
-    <row r="240" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="33"/>
       <c r="B240" s="34"/>
       <c r="C240" s="35"/>
       <c r="D240" s="34"/>
     </row>
-    <row r="241" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="33"/>
       <c r="B241" s="34"/>
       <c r="C241" s="35"/>
       <c r="D241" s="34"/>
     </row>
-    <row r="242" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="33"/>
       <c r="B242" s="34"/>
       <c r="C242" s="35"/>
       <c r="D242" s="34"/>
     </row>
-    <row r="243" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="33"/>
       <c r="B243" s="34"/>
       <c r="C243" s="35"/>
       <c r="D243" s="34"/>
     </row>
-    <row r="244" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="33"/>
       <c r="B244" s="34"/>
       <c r="C244" s="35"/>
       <c r="D244" s="34"/>
     </row>
-    <row r="245" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="33"/>
       <c r="B245" s="34"/>
       <c r="C245" s="35"/>
       <c r="D245" s="34"/>
     </row>
-    <row r="246" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="33"/>
       <c r="B246" s="34"/>
       <c r="C246" s="35"/>
       <c r="D246" s="34"/>
     </row>
-    <row r="247" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="33"/>
       <c r="B247" s="34"/>
       <c r="C247" s="35"/>
       <c r="D247" s="34"/>
     </row>
-    <row r="248" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="33"/>
       <c r="B248" s="34"/>
       <c r="C248" s="35"/>
       <c r="D248" s="34"/>
     </row>
-    <row r="249" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="33"/>
       <c r="B249" s="34"/>
       <c r="C249" s="35"/>
       <c r="D249" s="34"/>
     </row>
-    <row r="250" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="33"/>
       <c r="B250" s="34"/>
       <c r="C250" s="35"/>
       <c r="D250" s="34"/>
     </row>
-    <row r="251" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="33"/>
       <c r="B251" s="34"/>
       <c r="C251" s="35"/>
       <c r="D251" s="34"/>
     </row>
-    <row r="252" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="33"/>
       <c r="B252" s="34"/>
       <c r="C252" s="35"/>
       <c r="D252" s="34"/>
     </row>
-    <row r="253" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="33"/>
       <c r="B253" s="34"/>
       <c r="C253" s="35"/>
       <c r="D253" s="34"/>
     </row>
-    <row r="254" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="33"/>
       <c r="B254" s="34"/>
       <c r="C254" s="35"/>
       <c r="D254" s="34"/>
     </row>
-    <row r="255" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="33"/>
       <c r="B255" s="34"/>
       <c r="C255" s="35"/>
       <c r="D255" s="34"/>
     </row>
-    <row r="256" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="33"/>
       <c r="B256" s="34"/>
       <c r="C256" s="35"/>
       <c r="D256" s="34"/>
     </row>
-    <row r="257" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="33"/>
       <c r="B257" s="34"/>
       <c r="C257" s="35"/>
       <c r="D257" s="34"/>
     </row>
-    <row r="258" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="33"/>
       <c r="B258" s="34"/>
       <c r="C258" s="35"/>
       <c r="D258" s="34"/>
     </row>
-    <row r="259" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="33"/>
       <c r="B259" s="34"/>
       <c r="C259" s="35"/>
       <c r="D259" s="34"/>
     </row>
-    <row r="260" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="33"/>
       <c r="B260" s="34"/>
       <c r="C260" s="35"/>
       <c r="D260" s="34"/>
     </row>
-    <row r="261" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="33"/>
       <c r="B261" s="34"/>
       <c r="C261" s="35"/>
       <c r="D261" s="34"/>
     </row>
-    <row r="262" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="33"/>
       <c r="B262" s="34"/>
       <c r="C262" s="35"/>
       <c r="D262" s="34"/>
     </row>
-    <row r="263" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="33"/>
       <c r="B263" s="34"/>
       <c r="C263" s="35"/>
       <c r="D263" s="34"/>
     </row>
-    <row r="264" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="33"/>
       <c r="B264" s="34"/>
       <c r="C264" s="35"/>
       <c r="D264" s="34"/>
     </row>
-    <row r="265" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="33"/>
       <c r="B265" s="34"/>
       <c r="C265" s="35"/>
       <c r="D265" s="34"/>
     </row>
-    <row r="266" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="33"/>
       <c r="B266" s="34"/>
       <c r="C266" s="35"/>
       <c r="D266" s="34"/>
     </row>
-    <row r="267" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="33"/>
       <c r="B267" s="34"/>
       <c r="C267" s="35"/>
       <c r="D267" s="34"/>
     </row>
-    <row r="268" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="33"/>
       <c r="B268" s="34"/>
       <c r="C268" s="35"/>
       <c r="D268" s="34"/>
     </row>
-    <row r="269" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="33"/>
       <c r="B269" s="34"/>
       <c r="C269" s="35"/>
       <c r="D269" s="34"/>
     </row>
-    <row r="270" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="33"/>
       <c r="B270" s="34"/>
       <c r="C270" s="35"/>
       <c r="D270" s="34"/>
     </row>
-    <row r="271" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="33"/>
       <c r="B271" s="34"/>
       <c r="C271" s="35"/>
       <c r="D271" s="34"/>
     </row>
-    <row r="272" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="33"/>
       <c r="B272" s="34"/>
       <c r="C272" s="35"/>
       <c r="D272" s="34"/>
     </row>
-    <row r="273" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="33"/>
       <c r="B273" s="34"/>
       <c r="C273" s="35"/>
       <c r="D273" s="34"/>
     </row>
-    <row r="274" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="33"/>
       <c r="B274" s="34"/>
       <c r="C274" s="35"/>
       <c r="D274" s="34"/>
     </row>
-    <row r="275" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="33"/>
       <c r="B275" s="34"/>
       <c r="C275" s="35"/>
       <c r="D275" s="34"/>
     </row>
-    <row r="276" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="33"/>
       <c r="B276" s="34"/>
       <c r="C276" s="35"/>
       <c r="D276" s="34"/>
     </row>
-    <row r="277" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="33"/>
       <c r="B277" s="34"/>
       <c r="C277" s="35"/>
       <c r="D277" s="34"/>
     </row>
-    <row r="278" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="33"/>
       <c r="B278" s="34"/>
       <c r="C278" s="35"/>
       <c r="D278" s="34"/>
     </row>
-    <row r="279" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="33"/>
       <c r="B279" s="34"/>
       <c r="C279" s="35"/>
       <c r="D279" s="34"/>
     </row>
-    <row r="280" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="33"/>
       <c r="B280" s="34"/>
       <c r="C280" s="35"/>
       <c r="D280" s="34"/>
     </row>
-    <row r="281" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="33"/>
       <c r="B281" s="34"/>
       <c r="C281" s="35"/>
       <c r="D281" s="34"/>
     </row>
-    <row r="282" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="33"/>
       <c r="B282" s="34"/>
       <c r="C282" s="35"/>
       <c r="D282" s="34"/>
     </row>
-    <row r="283" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="33"/>
       <c r="B283" s="34"/>
       <c r="C283" s="35"/>
       <c r="D283" s="34"/>
     </row>
-    <row r="284" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="33"/>
       <c r="B284" s="34"/>
       <c r="C284" s="35"/>
       <c r="D284" s="34"/>
     </row>
-    <row r="285" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="33"/>
       <c r="B285" s="34"/>
       <c r="C285" s="35"/>
       <c r="D285" s="34"/>
     </row>
-    <row r="286" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="33"/>
       <c r="B286" s="34"/>
       <c r="C286" s="35"/>
       <c r="D286" s="34"/>
     </row>
-    <row r="287" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="33"/>
       <c r="B287" s="34"/>
       <c r="C287" s="35"/>
       <c r="D287" s="34"/>
     </row>
-    <row r="288" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="33"/>
       <c r="B288" s="34"/>
       <c r="C288" s="35"/>
       <c r="D288" s="34"/>
     </row>
-    <row r="289" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="33"/>
       <c r="B289" s="34"/>
       <c r="C289" s="35"/>
       <c r="D289" s="34"/>
     </row>
-    <row r="290" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="33"/>
       <c r="B290" s="34"/>
       <c r="C290" s="35"/>
       <c r="D290" s="34"/>
     </row>
-    <row r="291" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="33"/>
       <c r="B291" s="34"/>
       <c r="C291" s="35"/>
       <c r="D291" s="34"/>
     </row>
-    <row r="292" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="33"/>
       <c r="B292" s="34"/>
       <c r="C292" s="35"/>
       <c r="D292" s="34"/>
     </row>
-    <row r="293" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="33"/>
       <c r="B293" s="34"/>
       <c r="C293" s="35"/>
       <c r="D293" s="34"/>
     </row>
-    <row r="294" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="33"/>
       <c r="B294" s="34"/>
       <c r="C294" s="35"/>
       <c r="D294" s="34"/>
     </row>
-    <row r="295" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="33"/>
       <c r="B295" s="34"/>
       <c r="C295" s="35"/>
       <c r="D295" s="34"/>
     </row>
-    <row r="296" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="33"/>
       <c r="B296" s="34"/>
       <c r="C296" s="35"/>
       <c r="D296" s="34"/>
     </row>
-    <row r="297" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="33"/>
       <c r="B297" s="34"/>
       <c r="C297" s="35"/>
       <c r="D297" s="34"/>
     </row>
-    <row r="298" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="33"/>
       <c r="B298" s="34"/>
       <c r="C298" s="35"/>
       <c r="D298" s="34"/>
     </row>
-    <row r="299" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="33"/>
       <c r="B299" s="34"/>
       <c r="C299" s="35"/>
       <c r="D299" s="34"/>
     </row>
-    <row r="300" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="33"/>
       <c r="B300" s="34"/>
       <c r="C300" s="35"/>
       <c r="D300" s="34"/>
     </row>
-    <row r="301" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="33"/>
       <c r="B301" s="34"/>
       <c r="C301" s="35"/>
       <c r="D301" s="34"/>
     </row>
-    <row r="302" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="33"/>
       <c r="B302" s="34"/>
       <c r="C302" s="35"/>
       <c r="D302" s="34"/>
     </row>
-    <row r="303" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="33"/>
       <c r="B303" s="34"/>
       <c r="C303" s="35"/>
       <c r="D303" s="34"/>
     </row>
-    <row r="304" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="33"/>
       <c r="B304" s="34"/>
       <c r="C304" s="35"/>
       <c r="D304" s="34"/>
     </row>
-    <row r="305" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="33"/>
       <c r="B305" s="34"/>
       <c r="C305" s="35"/>
       <c r="D305" s="34"/>
     </row>
-    <row r="306" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="33"/>
       <c r="B306" s="34"/>
       <c r="C306" s="35"/>
       <c r="D306" s="34"/>
     </row>
-    <row r="307" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="33"/>
       <c r="B307" s="34"/>
       <c r="C307" s="35"/>
       <c r="D307" s="34"/>
     </row>
-    <row r="308" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="33"/>
       <c r="B308" s="34"/>
       <c r="C308" s="35"/>
       <c r="D308" s="34"/>
     </row>
-    <row r="309" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="33"/>
       <c r="B309" s="34"/>
       <c r="C309" s="35"/>
       <c r="D309" s="34"/>
     </row>
-    <row r="310" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="33"/>
       <c r="B310" s="34"/>
       <c r="C310" s="35"/>
       <c r="D310" s="34"/>
     </row>
-    <row r="311" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="33"/>
       <c r="B311" s="34"/>
       <c r="C311" s="35"/>
       <c r="D311" s="34"/>
     </row>
-    <row r="312" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="33"/>
       <c r="B312" s="34"/>
       <c r="C312" s="35"/>
       <c r="D312" s="34"/>
     </row>
-    <row r="313" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="33"/>
       <c r="B313" s="34"/>
       <c r="C313" s="35"/>
       <c r="D313" s="34"/>
     </row>
-    <row r="314" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="33"/>
       <c r="B314" s="34"/>
       <c r="C314" s="35"/>
       <c r="D314" s="34"/>
     </row>
-    <row r="315" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="33"/>
       <c r="B315" s="34"/>
       <c r="C315" s="35"/>
       <c r="D315" s="34"/>
     </row>
-    <row r="316" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="33"/>
       <c r="B316" s="34"/>
       <c r="C316" s="35"/>
       <c r="D316" s="34"/>
     </row>
-    <row r="317" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="33"/>
       <c r="B317" s="34"/>
       <c r="C317" s="35"/>
       <c r="D317" s="34"/>
     </row>
-    <row r="318" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="33"/>
       <c r="B318" s="34"/>
       <c r="C318" s="35"/>
       <c r="D318" s="34"/>
     </row>
-    <row r="319" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="33"/>
       <c r="B319" s="34"/>
       <c r="C319" s="35"/>
       <c r="D319" s="34"/>
     </row>
-    <row r="320" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="33"/>
       <c r="B320" s="34"/>
       <c r="C320" s="35"/>
       <c r="D320" s="34"/>
     </row>
-    <row r="321" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="33"/>
       <c r="B321" s="34"/>
       <c r="C321" s="35"/>
       <c r="D321" s="34"/>
     </row>
-    <row r="322" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="33"/>
       <c r="B322" s="34"/>
       <c r="C322" s="35"/>
       <c r="D322" s="34"/>
     </row>
-    <row r="323" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="33"/>
       <c r="B323" s="34"/>
       <c r="C323" s="35"/>
       <c r="D323" s="34"/>
     </row>
-    <row r="324" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="33"/>
       <c r="B324" s="34"/>
       <c r="C324" s="35"/>
       <c r="D324" s="34"/>
     </row>
-    <row r="325" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="33"/>
       <c r="B325" s="34"/>
       <c r="C325" s="35"/>
       <c r="D325" s="34"/>
     </row>
-    <row r="326" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="33"/>
       <c r="B326" s="34"/>
       <c r="C326" s="35"/>
       <c r="D326" s="34"/>
     </row>
-    <row r="327" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="33"/>
       <c r="B327" s="34"/>
       <c r="C327" s="35"/>
       <c r="D327" s="34"/>
     </row>
-    <row r="328" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="33"/>
       <c r="B328" s="34"/>
       <c r="C328" s="35"/>
       <c r="D328" s="34"/>
     </row>
-    <row r="329" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="33"/>
       <c r="B329" s="34"/>
       <c r="C329" s="35"/>
       <c r="D329" s="34"/>
     </row>
-    <row r="330" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="33"/>
       <c r="B330" s="34"/>
       <c r="C330" s="35"/>
       <c r="D330" s="34"/>
     </row>
-    <row r="331" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="33"/>
       <c r="B331" s="34"/>
       <c r="C331" s="35"/>
       <c r="D331" s="34"/>
     </row>
-    <row r="332" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="33"/>
       <c r="B332" s="34"/>
       <c r="C332" s="35"/>
       <c r="D332" s="34"/>
     </row>
-    <row r="333" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="33"/>
       <c r="B333" s="34"/>
       <c r="C333" s="35"/>
       <c r="D333" s="34"/>
     </row>
-    <row r="334" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="33"/>
       <c r="B334" s="34"/>
       <c r="C334" s="35"/>
       <c r="D334" s="34"/>
     </row>
-    <row r="335" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="33"/>
       <c r="B335" s="34"/>
       <c r="C335" s="35"/>
       <c r="D335" s="34"/>
     </row>
-    <row r="336" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="33"/>
       <c r="B336" s="34"/>
       <c r="C336" s="35"/>
       <c r="D336" s="34"/>
     </row>
-    <row r="337" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="33"/>
       <c r="B337" s="34"/>
       <c r="C337" s="35"/>
       <c r="D337" s="34"/>
     </row>
-    <row r="338" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="33"/>
       <c r="B338" s="34"/>
       <c r="C338" s="35"/>
       <c r="D338" s="34"/>
     </row>
-    <row r="339" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="33"/>
       <c r="B339" s="34"/>
       <c r="C339" s="35"/>
       <c r="D339" s="34"/>
     </row>
-    <row r="340" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="33"/>
       <c r="B340" s="34"/>
       <c r="C340" s="35"/>
       <c r="D340" s="34"/>
     </row>
-    <row r="341" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="33"/>
       <c r="B341" s="34"/>
       <c r="C341" s="35"/>
       <c r="D341" s="34"/>
     </row>
-    <row r="342" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="33"/>
       <c r="B342" s="34"/>
       <c r="C342" s="35"/>
       <c r="D342" s="34"/>
     </row>
-    <row r="343" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="33"/>
       <c r="B343" s="34"/>
       <c r="C343" s="35"/>
       <c r="D343" s="34"/>
     </row>
-    <row r="344" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="33"/>
       <c r="B344" s="34"/>
       <c r="C344" s="35"/>
       <c r="D344" s="34"/>
     </row>
-    <row r="345" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="33"/>
       <c r="B345" s="34"/>
       <c r="C345" s="35"/>
       <c r="D345" s="34"/>
     </row>
-    <row r="346" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="33"/>
       <c r="B346" s="34"/>
       <c r="C346" s="35"/>
       <c r="D346" s="34"/>
     </row>
-    <row r="347" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="33"/>
       <c r="B347" s="34"/>
       <c r="C347" s="35"/>
       <c r="D347" s="34"/>
     </row>
-    <row r="348" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="33"/>
       <c r="B348" s="34"/>
       <c r="C348" s="35"/>
       <c r="D348" s="34"/>
     </row>
-    <row r="349" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="33"/>
       <c r="B349" s="34"/>
       <c r="C349" s="35"/>
       <c r="D349" s="34"/>
     </row>
-    <row r="350" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="33"/>
       <c r="B350" s="34"/>
       <c r="C350" s="35"/>
       <c r="D350" s="34"/>
     </row>
-    <row r="351" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="33"/>
       <c r="B351" s="34"/>
       <c r="C351" s="35"/>
       <c r="D351" s="34"/>
     </row>
-    <row r="352" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="33"/>
       <c r="B352" s="34"/>
       <c r="C352" s="35"/>
       <c r="D352" s="34"/>
     </row>
-    <row r="353" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="33"/>
       <c r="B353" s="34"/>
       <c r="C353" s="35"/>
       <c r="D353" s="34"/>
     </row>
-    <row r="354" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="33"/>
       <c r="B354" s="34"/>
       <c r="C354" s="35"/>
       <c r="D354" s="34"/>
     </row>
-    <row r="355" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="33"/>
       <c r="B355" s="34"/>
       <c r="C355" s="35"/>
       <c r="D355" s="34"/>
     </row>
-    <row r="356" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="33"/>
       <c r="B356" s="34"/>
       <c r="C356" s="35"/>
       <c r="D356" s="34"/>
     </row>
-    <row r="357" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="33"/>
       <c r="B357" s="34"/>
       <c r="C357" s="35"/>
       <c r="D357" s="34"/>
     </row>
-    <row r="358" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="33"/>
       <c r="B358" s="34"/>
       <c r="C358" s="35"/>
       <c r="D358" s="34"/>
     </row>
-    <row r="359" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="33"/>
       <c r="B359" s="34"/>
       <c r="C359" s="35"/>
       <c r="D359" s="34"/>
     </row>
-    <row r="360" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="33"/>
       <c r="B360" s="34"/>
       <c r="C360" s="35"/>
       <c r="D360" s="34"/>
     </row>
-    <row r="361" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="33"/>
       <c r="B361" s="34"/>
       <c r="C361" s="35"/>
       <c r="D361" s="34"/>
     </row>
-    <row r="362" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="33"/>
       <c r="B362" s="34"/>
       <c r="C362" s="35"/>
       <c r="D362" s="34"/>
     </row>
-    <row r="363" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="33"/>
       <c r="B363" s="34"/>
       <c r="C363" s="35"/>
       <c r="D363" s="34"/>
     </row>
-    <row r="364" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="33"/>
       <c r="B364" s="34"/>
       <c r="C364" s="35"/>
       <c r="D364" s="34"/>
     </row>
-    <row r="365" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="33"/>
       <c r="B365" s="34"/>
       <c r="C365" s="35"/>
       <c r="D365" s="34"/>
     </row>
-    <row r="366" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="33"/>
       <c r="B366" s="34"/>
       <c r="C366" s="35"/>
       <c r="D366" s="34"/>
     </row>
-    <row r="367" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="33"/>
       <c r="B367" s="34"/>
       <c r="C367" s="35"/>
       <c r="D367" s="34"/>
     </row>
-    <row r="368" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="33"/>
       <c r="B368" s="34"/>
       <c r="C368" s="35"/>
       <c r="D368" s="34"/>
     </row>
-    <row r="369" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="33"/>
       <c r="B369" s="34"/>
       <c r="C369" s="35"/>
       <c r="D369" s="34"/>
     </row>
-    <row r="370" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="33"/>
       <c r="B370" s="34"/>
       <c r="C370" s="35"/>
       <c r="D370" s="34"/>
     </row>
-    <row r="371" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="33"/>
       <c r="B371" s="34"/>
       <c r="C371" s="35"/>
       <c r="D371" s="34"/>
     </row>
-    <row r="372" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="33"/>
       <c r="B372" s="34"/>
       <c r="C372" s="35"/>
       <c r="D372" s="34"/>
     </row>
-    <row r="373" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="33"/>
       <c r="B373" s="34"/>
       <c r="C373" s="35"/>
       <c r="D373" s="34"/>
     </row>
-    <row r="374" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="33"/>
       <c r="B374" s="34"/>
       <c r="C374" s="35"/>
       <c r="D374" s="34"/>
     </row>
-    <row r="375" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="33"/>
       <c r="B375" s="34"/>
       <c r="C375" s="35"/>
       <c r="D375" s="34"/>
     </row>
-    <row r="376" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="33"/>
       <c r="B376" s="34"/>
       <c r="C376" s="35"/>
       <c r="D376" s="34"/>
     </row>
-    <row r="377" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="33"/>
       <c r="B377" s="34"/>
       <c r="C377" s="35"/>
       <c r="D377" s="34"/>
     </row>
-    <row r="378" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="33"/>
       <c r="B378" s="34"/>
       <c r="C378" s="35"/>
       <c r="D378" s="34"/>
     </row>
-    <row r="379" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="33"/>
       <c r="B379" s="34"/>
       <c r="C379" s="35"/>
       <c r="D379" s="34"/>
     </row>
-    <row r="380" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="33"/>
       <c r="B380" s="34"/>
       <c r="C380" s="35"/>
       <c r="D380" s="34"/>
     </row>
-    <row r="381" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="33"/>
       <c r="B381" s="34"/>
       <c r="C381" s="35"/>
       <c r="D381" s="34"/>
     </row>
-    <row r="382" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="33"/>
       <c r="B382" s="34"/>
       <c r="C382" s="35"/>
       <c r="D382" s="34"/>
     </row>
-    <row r="383" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="33"/>
       <c r="B383" s="34"/>
       <c r="C383" s="35"/>
       <c r="D383" s="34"/>
     </row>
-    <row r="384" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="33"/>
       <c r="B384" s="34"/>
       <c r="C384" s="35"/>
       <c r="D384" s="34"/>
     </row>
-    <row r="385" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="33"/>
       <c r="B385" s="34"/>
       <c r="C385" s="35"/>
       <c r="D385" s="34"/>
     </row>
-    <row r="386" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="33"/>
       <c r="B386" s="34"/>
       <c r="C386" s="35"/>
       <c r="D386" s="34"/>
     </row>
-    <row r="387" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="33"/>
       <c r="B387" s="34"/>
       <c r="C387" s="35"/>
       <c r="D387" s="34"/>
     </row>
-    <row r="388" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="33"/>
       <c r="B388" s="34"/>
       <c r="C388" s="35"/>
       <c r="D388" s="34"/>
     </row>
-    <row r="389" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="33"/>
       <c r="B389" s="34"/>
       <c r="C389" s="35"/>
       <c r="D389" s="34"/>
     </row>
-    <row r="390" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="33"/>
       <c r="B390" s="34"/>
       <c r="C390" s="35"/>
       <c r="D390" s="34"/>
     </row>
-    <row r="391" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="33"/>
       <c r="B391" s="34"/>
       <c r="C391" s="35"/>
       <c r="D391" s="34"/>
     </row>
-    <row r="392" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="33"/>
       <c r="B392" s="34"/>
       <c r="C392" s="35"/>
       <c r="D392" s="34"/>
     </row>
-    <row r="393" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="33"/>
       <c r="B393" s="34"/>
       <c r="C393" s="35"/>
       <c r="D393" s="34"/>
     </row>
-    <row r="394" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="33"/>
       <c r="B394" s="34"/>
       <c r="C394" s="35"/>
       <c r="D394" s="34"/>
     </row>
-    <row r="395" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="33"/>
       <c r="B395" s="34"/>
       <c r="C395" s="35"/>
       <c r="D395" s="34"/>
     </row>
-    <row r="396" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="33"/>
       <c r="B396" s="34"/>
       <c r="C396" s="35"/>
       <c r="D396" s="34"/>
     </row>
-    <row r="397" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="33"/>
       <c r="B397" s="34"/>
       <c r="C397" s="35"/>
       <c r="D397" s="34"/>
     </row>
-    <row r="398" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="33"/>
       <c r="B398" s="34"/>
       <c r="C398" s="35"/>
       <c r="D398" s="34"/>
     </row>
-    <row r="399" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="33"/>
       <c r="B399" s="34"/>
       <c r="C399" s="35"/>
       <c r="D399" s="34"/>
     </row>
-    <row r="400" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="33"/>
       <c r="B400" s="34"/>
       <c r="C400" s="35"/>
       <c r="D400" s="34"/>
     </row>
-    <row r="401" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="33"/>
       <c r="B401" s="34"/>
       <c r="C401" s="35"/>
       <c r="D401" s="34"/>
     </row>
-    <row r="402" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="33"/>
       <c r="B402" s="34"/>
       <c r="C402" s="35"/>
       <c r="D402" s="34"/>
     </row>
-    <row r="403" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="33"/>
       <c r="B403" s="34"/>
       <c r="C403" s="35"/>
       <c r="D403" s="34"/>
     </row>
-    <row r="404" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="33"/>
       <c r="B404" s="34"/>
       <c r="C404" s="35"/>
       <c r="D404" s="34"/>
     </row>
-    <row r="405" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="33"/>
       <c r="B405" s="34"/>
       <c r="C405" s="35"/>
       <c r="D405" s="34"/>
     </row>
-    <row r="406" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="33"/>
       <c r="B406" s="34"/>
       <c r="C406" s="35"/>
       <c r="D406" s="34"/>
     </row>
-    <row r="407" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="33"/>
       <c r="B407" s="34"/>
       <c r="C407" s="35"/>
       <c r="D407" s="34"/>
     </row>
-    <row r="408" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="33"/>
       <c r="B408" s="34"/>
       <c r="C408" s="35"/>
       <c r="D408" s="34"/>
     </row>
-    <row r="409" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="33"/>
       <c r="B409" s="34"/>
       <c r="C409" s="35"/>
       <c r="D409" s="34"/>
     </row>
-    <row r="410" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="33"/>
       <c r="B410" s="34"/>
       <c r="C410" s="35"/>
       <c r="D410" s="34"/>
     </row>
-    <row r="411" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="33"/>
       <c r="B411" s="34"/>
       <c r="C411" s="35"/>
       <c r="D411" s="34"/>
     </row>
-    <row r="412" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="33"/>
       <c r="B412" s="34"/>
       <c r="C412" s="35"/>
       <c r="D412" s="34"/>
     </row>
-    <row r="413" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="33"/>
       <c r="B413" s="34"/>
       <c r="C413" s="35"/>
       <c r="D413" s="34"/>
     </row>
-    <row r="414" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="33"/>
       <c r="B414" s="34"/>
       <c r="C414" s="35"/>
       <c r="D414" s="34"/>
     </row>
-    <row r="415" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="33"/>
       <c r="B415" s="34"/>
       <c r="C415" s="35"/>
       <c r="D415" s="34"/>
     </row>
-    <row r="416" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="33"/>
       <c r="B416" s="34"/>
       <c r="C416" s="35"/>
       <c r="D416" s="34"/>
     </row>
-    <row r="417" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="33"/>
       <c r="B417" s="34"/>
       <c r="C417" s="35"/>
       <c r="D417" s="34"/>
     </row>
-    <row r="418" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="33"/>
       <c r="B418" s="34"/>
       <c r="C418" s="35"/>
       <c r="D418" s="34"/>
     </row>
-    <row r="419" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="33"/>
       <c r="B419" s="34"/>
       <c r="C419" s="35"/>
       <c r="D419" s="34"/>
     </row>
-    <row r="420" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="33"/>
       <c r="B420" s="34"/>
       <c r="C420" s="35"/>
       <c r="D420" s="34"/>
     </row>
-    <row r="421" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="33"/>
       <c r="B421" s="34"/>
       <c r="C421" s="35"/>
       <c r="D421" s="34"/>
     </row>
-    <row r="422" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="33"/>
       <c r="B422" s="34"/>
       <c r="C422" s="35"/>
       <c r="D422" s="34"/>
     </row>
-    <row r="423" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="33"/>
       <c r="B423" s="34"/>
       <c r="C423" s="35"/>
       <c r="D423" s="34"/>
     </row>
-    <row r="424" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="33"/>
       <c r="B424" s="34"/>
       <c r="C424" s="35"/>
       <c r="D424" s="34"/>
     </row>
-    <row r="425" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="33"/>
       <c r="B425" s="34"/>
       <c r="C425" s="35"/>
       <c r="D425" s="34"/>
     </row>
-    <row r="426" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="33"/>
       <c r="B426" s="34"/>
       <c r="C426" s="35"/>
       <c r="D426" s="34"/>
     </row>
-    <row r="427" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="33"/>
       <c r="B427" s="34"/>
       <c r="C427" s="35"/>
       <c r="D427" s="34"/>
     </row>
-    <row r="428" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="33"/>
       <c r="B428" s="34"/>
       <c r="C428" s="35"/>
       <c r="D428" s="34"/>
     </row>
-    <row r="429" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="33"/>
       <c r="B429" s="34"/>
       <c r="C429" s="35"/>
       <c r="D429" s="34"/>
     </row>
-    <row r="430" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="33"/>
       <c r="B430" s="34"/>
       <c r="C430" s="35"/>
       <c r="D430" s="34"/>
     </row>
-    <row r="431" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="33"/>
       <c r="B431" s="34"/>
       <c r="C431" s="35"/>
       <c r="D431" s="34"/>
     </row>
-    <row r="432" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="33"/>
       <c r="B432" s="34"/>
       <c r="C432" s="35"/>
       <c r="D432" s="34"/>
     </row>
-    <row r="433" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="33"/>
       <c r="B433" s="34"/>
       <c r="C433" s="35"/>
       <c r="D433" s="34"/>
     </row>
-    <row r="434" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="33"/>
       <c r="B434" s="34"/>
       <c r="C434" s="35"/>
       <c r="D434" s="34"/>
     </row>
-    <row r="435" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="33"/>
       <c r="B435" s="34"/>
       <c r="C435" s="35"/>
       <c r="D435" s="34"/>
     </row>
-    <row r="436" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="33"/>
       <c r="B436" s="34"/>
       <c r="C436" s="35"/>
       <c r="D436" s="34"/>
     </row>
-    <row r="437" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="33"/>
       <c r="B437" s="34"/>
       <c r="C437" s="35"/>
       <c r="D437" s="34"/>
     </row>
-    <row r="438" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="33"/>
       <c r="B438" s="34"/>
       <c r="C438" s="35"/>
       <c r="D438" s="34"/>
     </row>
-    <row r="439" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="33"/>
       <c r="B439" s="34"/>
       <c r="C439" s="35"/>
       <c r="D439" s="34"/>
     </row>
-    <row r="440" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="33"/>
       <c r="B440" s="34"/>
       <c r="C440" s="35"/>
       <c r="D440" s="34"/>
     </row>
-    <row r="441" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="33"/>
       <c r="B441" s="34"/>
       <c r="C441" s="35"/>
       <c r="D441" s="34"/>
     </row>
-    <row r="442" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="33"/>
       <c r="B442" s="34"/>
       <c r="C442" s="35"/>
       <c r="D442" s="34"/>
     </row>
-    <row r="443" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="33"/>
       <c r="B443" s="34"/>
       <c r="C443" s="35"/>
       <c r="D443" s="34"/>
     </row>
-    <row r="444" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="33"/>
       <c r="B444" s="34"/>
       <c r="C444" s="35"/>
       <c r="D444" s="34"/>
     </row>
-    <row r="445" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="33"/>
       <c r="B445" s="34"/>
       <c r="C445" s="35"/>
       <c r="D445" s="34"/>
     </row>
-    <row r="446" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="33"/>
       <c r="B446" s="34"/>
       <c r="C446" s="35"/>
       <c r="D446" s="34"/>
     </row>
-    <row r="447" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="33"/>
       <c r="B447" s="34"/>
       <c r="C447" s="35"/>
       <c r="D447" s="34"/>
     </row>
-    <row r="448" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="33"/>
       <c r="B448" s="34"/>
       <c r="C448" s="35"/>
       <c r="D448" s="34"/>
     </row>
-    <row r="449" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="33"/>
       <c r="B449" s="34"/>
       <c r="C449" s="35"/>
       <c r="D449" s="34"/>
     </row>
-    <row r="450" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="33"/>
       <c r="B450" s="34"/>
       <c r="C450" s="35"/>
       <c r="D450" s="34"/>
     </row>
-    <row r="451" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="33"/>
       <c r="B451" s="34"/>
       <c r="C451" s="35"/>
       <c r="D451" s="34"/>
     </row>
-    <row r="452" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="33"/>
       <c r="B452" s="34"/>
       <c r="C452" s="35"/>
       <c r="D452" s="34"/>
     </row>
-    <row r="453" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="33"/>
       <c r="B453" s="34"/>
       <c r="C453" s="35"/>
       <c r="D453" s="34"/>
     </row>
-    <row r="454" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="33"/>
       <c r="B454" s="34"/>
       <c r="C454" s="35"/>
       <c r="D454" s="34"/>
     </row>
-    <row r="455" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="33"/>
       <c r="B455" s="34"/>
       <c r="C455" s="35"/>
       <c r="D455" s="34"/>
     </row>
-    <row r="456" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="33"/>
       <c r="B456" s="34"/>
       <c r="C456" s="35"/>
       <c r="D456" s="34"/>
     </row>
-    <row r="457" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="33"/>
       <c r="B457" s="34"/>
       <c r="C457" s="35"/>
       <c r="D457" s="34"/>
     </row>
-    <row r="458" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="33"/>
       <c r="B458" s="34"/>
       <c r="C458" s="35"/>
       <c r="D458" s="34"/>
     </row>
-    <row r="459" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="33"/>
       <c r="B459" s="34"/>
       <c r="C459" s="35"/>
       <c r="D459" s="34"/>
     </row>
-    <row r="460" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="33"/>
       <c r="B460" s="34"/>
       <c r="C460" s="35"/>
       <c r="D460" s="34"/>
     </row>
-    <row r="461" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="33"/>
       <c r="B461" s="34"/>
       <c r="C461" s="35"/>
       <c r="D461" s="34"/>
     </row>
-    <row r="462" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="33"/>
       <c r="B462" s="34"/>
       <c r="C462" s="35"/>
       <c r="D462" s="34"/>
     </row>
-    <row r="463" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A463" s="33"/>
-      <c r="B463" s="34"/>
-      <c r="C463" s="35"/>
-      <c r="D463" s="34"/>
-    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C2:D3"/>
@@ -4158,7 +4183,7 @@
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
       <c r="C2" s="39" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D2" s="39"/>
       <c r="E2" s="39"/>
@@ -4207,10 +4232,10 @@
     <row r="6" customFormat="false" ht="138" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="7"/>
       <c r="B6" s="42" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D6" s="43"/>
       <c r="E6" s="43"/>
@@ -4235,13 +4260,13 @@
     <row r="8" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="7"/>
       <c r="B8" s="42" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C8" s="44" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D8" s="45" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E8" s="46"/>
       <c r="F8" s="46"/>
@@ -4265,13 +4290,13 @@
     <row r="10" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="7"/>
       <c r="B10" s="47" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C10" s="44" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D10" s="48" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E10" s="48"/>
       <c r="F10" s="48"/>
@@ -4296,7 +4321,7 @@
       <c r="A12" s="7"/>
       <c r="B12" s="47"/>
       <c r="C12" s="8" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D12" s="51" t="str">
         <f aca="false">Temps!D6</f>
@@ -4313,7 +4338,7 @@
       <c r="A13" s="7"/>
       <c r="B13" s="47"/>
       <c r="C13" s="8" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D13" s="51" t="str">
         <f aca="false">Temps!D7</f>
@@ -4330,10 +4355,10 @@
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="52" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D14" s="53" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E14" s="54" t="n">
         <f aca="false">VLOOKUP(Évaluateur!D14,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -4352,10 +4377,10 @@
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="C15" s="52" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D15" s="53" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E15" s="54" t="n">
         <f aca="false">VLOOKUP(Évaluateur!D15,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -4371,10 +4396,10 @@
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
       <c r="C16" s="52" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D16" s="53" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E16" s="54" t="n">
         <f aca="false">VLOOKUP(Évaluateur!D16,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -4390,10 +4415,10 @@
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" s="52" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D17" s="53" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E17" s="54" t="n">
         <f aca="false">VLOOKUP(Évaluateur!D17,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -4409,10 +4434,10 @@
       <c r="A18" s="7"/>
       <c r="B18" s="8"/>
       <c r="C18" s="52" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D18" s="53" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E18" s="54" t="n">
         <f aca="false">VLOOKUP(Évaluateur!D18,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -4428,10 +4453,10 @@
       <c r="A19" s="7"/>
       <c r="B19" s="8"/>
       <c r="C19" s="52" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D19" s="53" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E19" s="54" t="n">
         <f aca="false">VLOOKUP(Évaluateur!D19,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -4447,10 +4472,10 @@
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="52" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D20" s="53" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E20" s="54" t="n">
         <f aca="false">VLOOKUP(Évaluateur!D20,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -4466,10 +4491,10 @@
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="52" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D21" s="53" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E21" s="54" t="n">
         <f aca="false">VLOOKUP(Évaluateur!D21,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -4485,10 +4510,10 @@
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
       <c r="C22" s="52" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D22" s="53" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E22" s="54" t="n">
         <f aca="false">VLOOKUP(Évaluateur!D22,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -4504,10 +4529,10 @@
       <c r="A23" s="7"/>
       <c r="B23" s="8"/>
       <c r="C23" s="52" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D23" s="53" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E23" s="54" t="n">
         <f aca="false">VLOOKUP(Évaluateur!D23,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -4523,10 +4548,10 @@
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
       <c r="C24" s="52" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D24" s="53" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E24" s="54" t="n">
         <f aca="false">VLOOKUP(Évaluateur!D24,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -4542,10 +4567,10 @@
       <c r="A25" s="7"/>
       <c r="B25" s="8"/>
       <c r="C25" s="52" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D25" s="53" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E25" s="54" t="n">
         <f aca="false">VLOOKUP(Évaluateur!D25,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -4561,10 +4586,10 @@
       <c r="A26" s="7"/>
       <c r="B26" s="8"/>
       <c r="C26" s="52" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D26" s="53" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E26" s="54" t="n">
         <f aca="false">VLOOKUP(Évaluateur!D26,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -4580,10 +4605,10 @@
       <c r="A27" s="7"/>
       <c r="B27" s="8"/>
       <c r="C27" s="52" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D27" s="53" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E27" s="54" t="n">
         <f aca="false">VLOOKUP(Évaluateur!D27,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -4599,10 +4624,10 @@
       <c r="A28" s="7"/>
       <c r="B28" s="8"/>
       <c r="C28" s="52" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D28" s="53" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E28" s="54" t="n">
         <f aca="false">VLOOKUP(Évaluateur!D28,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -4630,7 +4655,7 @@
       <c r="A30" s="7"/>
       <c r="B30" s="8"/>
       <c r="C30" s="56" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D30" s="57"/>
       <c r="E30" s="57"/>
@@ -4778,7 +4803,7 @@
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
       <c r="C2" s="39" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D2" s="39"/>
       <c r="E2" s="39"/>
@@ -4839,13 +4864,13 @@
     <row r="7" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="7"/>
       <c r="B7" s="47" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D7" s="48" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E7" s="48"/>
       <c r="F7" s="48"/>
@@ -4870,10 +4895,10 @@
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D9" s="59" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E9" s="59"/>
       <c r="F9" s="59"/>
@@ -4886,10 +4911,10 @@
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D10" s="59" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E10" s="59"/>
       <c r="F10" s="59"/>
@@ -4902,10 +4927,10 @@
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="52" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D11" s="53" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E11" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 1'!D11,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -4924,10 +4949,10 @@
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="52" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D12" s="53" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E12" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 1'!D12,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -4943,10 +4968,10 @@
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
       <c r="C13" s="52" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D13" s="53" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E13" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 1'!D13,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -4962,10 +4987,10 @@
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="52" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D14" s="53" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E14" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 1'!D14,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -4981,10 +5006,10 @@
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="C15" s="52" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D15" s="53" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E15" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 1'!D15,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5000,10 +5025,10 @@
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
       <c r="C16" s="52" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D16" s="53" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E16" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 1'!D16,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5019,10 +5044,10 @@
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" s="52" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D17" s="53" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E17" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 1'!D17,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5038,10 +5063,10 @@
       <c r="A18" s="7"/>
       <c r="B18" s="8"/>
       <c r="C18" s="52" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D18" s="53" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E18" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 1'!D18,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5057,10 +5082,10 @@
       <c r="A19" s="7"/>
       <c r="B19" s="8"/>
       <c r="C19" s="52" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D19" s="53" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E19" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 1'!D19,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5076,10 +5101,10 @@
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="52" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D20" s="53" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E20" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 1'!D20,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5095,10 +5120,10 @@
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="52" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D21" s="53" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E21" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 1'!D21,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5114,10 +5139,10 @@
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
       <c r="C22" s="52" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D22" s="53" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E22" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 1'!D22,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5133,10 +5158,10 @@
       <c r="A23" s="7"/>
       <c r="B23" s="8"/>
       <c r="C23" s="52" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D23" s="53" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E23" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 1'!D23,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5152,10 +5177,10 @@
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
       <c r="C24" s="52" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D24" s="53" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E24" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 1'!D24,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5171,10 +5196,10 @@
       <c r="A25" s="7"/>
       <c r="B25" s="8"/>
       <c r="C25" s="52" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D25" s="53" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E25" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 1'!D25,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5202,7 +5227,7 @@
       <c r="A27" s="7"/>
       <c r="B27" s="8"/>
       <c r="C27" s="56" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D27" s="61"/>
       <c r="E27" s="61"/>
@@ -5348,7 +5373,7 @@
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
       <c r="C2" s="39" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D2" s="39"/>
       <c r="E2" s="39"/>
@@ -5409,13 +5434,13 @@
     <row r="7" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="7"/>
       <c r="B7" s="47" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D7" s="48" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E7" s="48"/>
       <c r="F7" s="48"/>
@@ -5440,10 +5465,10 @@
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D9" s="59" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E9" s="59"/>
       <c r="F9" s="59"/>
@@ -5456,10 +5481,10 @@
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D10" s="59" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E10" s="59"/>
       <c r="F10" s="59"/>
@@ -5472,10 +5497,10 @@
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="52" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D11" s="53" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E11" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 2'!D11,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5494,10 +5519,10 @@
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="52" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D12" s="53" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E12" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 2'!D12,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5513,10 +5538,10 @@
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
       <c r="C13" s="52" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D13" s="53" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E13" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 2'!D13,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5532,10 +5557,10 @@
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="52" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D14" s="53" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E14" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 2'!D14,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5551,10 +5576,10 @@
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="C15" s="52" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D15" s="53" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E15" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 2'!D15,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5570,10 +5595,10 @@
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
       <c r="C16" s="52" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D16" s="53" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E16" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 2'!D16,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5589,10 +5614,10 @@
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" s="52" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D17" s="53" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E17" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 2'!D17,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5608,10 +5633,10 @@
       <c r="A18" s="7"/>
       <c r="B18" s="8"/>
       <c r="C18" s="52" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D18" s="53" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E18" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 2'!D18,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5627,10 +5652,10 @@
       <c r="A19" s="7"/>
       <c r="B19" s="8"/>
       <c r="C19" s="52" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D19" s="53" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E19" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 2'!D19,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5646,10 +5671,10 @@
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="52" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D20" s="53" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E20" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 2'!D20,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5665,10 +5690,10 @@
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="52" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D21" s="53" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E21" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 2'!D21,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5684,10 +5709,10 @@
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
       <c r="C22" s="52" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D22" s="53" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E22" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 2'!D22,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5703,10 +5728,10 @@
       <c r="A23" s="7"/>
       <c r="B23" s="8"/>
       <c r="C23" s="52" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D23" s="53" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E23" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 2'!D23,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5722,10 +5747,10 @@
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
       <c r="C24" s="52" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D24" s="53" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E24" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 2'!D24,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5741,10 +5766,10 @@
       <c r="A25" s="7"/>
       <c r="B25" s="8"/>
       <c r="C25" s="52" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D25" s="53" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E25" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 2'!D25,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5772,7 +5797,7 @@
       <c r="A27" s="7"/>
       <c r="B27" s="8"/>
       <c r="C27" s="56" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D27" s="57"/>
       <c r="E27" s="57"/>
@@ -5918,7 +5943,7 @@
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
       <c r="C2" s="39" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D2" s="39"/>
       <c r="E2" s="39"/>
@@ -5979,13 +6004,13 @@
     <row r="7" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="7"/>
       <c r="B7" s="47" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D7" s="48" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E7" s="48"/>
       <c r="F7" s="48"/>
@@ -6010,10 +6035,10 @@
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D9" s="59" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E9" s="59"/>
       <c r="F9" s="59"/>
@@ -6026,10 +6051,10 @@
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D10" s="59" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E10" s="59"/>
       <c r="F10" s="59"/>
@@ -6042,10 +6067,10 @@
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="52" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D11" s="53" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E11" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 3'!D11,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6064,10 +6089,10 @@
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="52" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D12" s="53" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E12" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 3'!D12,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6083,10 +6108,10 @@
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
       <c r="C13" s="52" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D13" s="53" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E13" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 3'!D13,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6102,10 +6127,10 @@
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="52" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D14" s="53" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E14" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 3'!D14,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6121,10 +6146,10 @@
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="C15" s="52" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D15" s="53" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E15" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 3'!D15,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6140,10 +6165,10 @@
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
       <c r="C16" s="52" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D16" s="53" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E16" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 3'!D16,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6159,10 +6184,10 @@
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" s="52" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D17" s="53" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E17" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 3'!D17,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6178,10 +6203,10 @@
       <c r="A18" s="7"/>
       <c r="B18" s="8"/>
       <c r="C18" s="52" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D18" s="53" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E18" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 3'!D18,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6197,10 +6222,10 @@
       <c r="A19" s="7"/>
       <c r="B19" s="8"/>
       <c r="C19" s="52" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D19" s="53" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E19" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 3'!D19,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6216,10 +6241,10 @@
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="52" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D20" s="53" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E20" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 3'!D20,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6235,10 +6260,10 @@
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="52" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D21" s="53" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E21" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 3'!D21,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6254,10 +6279,10 @@
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
       <c r="C22" s="52" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D22" s="53" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E22" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 3'!D22,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6273,10 +6298,10 @@
       <c r="A23" s="7"/>
       <c r="B23" s="8"/>
       <c r="C23" s="52" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D23" s="53" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E23" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 3'!D23,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6292,10 +6317,10 @@
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
       <c r="C24" s="52" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D24" s="53" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E24" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 3'!D24,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6311,10 +6336,10 @@
       <c r="A25" s="7"/>
       <c r="B25" s="8"/>
       <c r="C25" s="52" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D25" s="53" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E25" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 3'!D25,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6342,7 +6367,7 @@
       <c r="A27" s="7"/>
       <c r="B27" s="8"/>
       <c r="C27" s="56" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D27" s="57"/>
       <c r="E27" s="57"/>
@@ -6488,7 +6513,7 @@
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
       <c r="C2" s="39" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D2" s="39"/>
       <c r="E2" s="39"/>
@@ -6549,13 +6574,13 @@
     <row r="7" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="7"/>
       <c r="B7" s="47" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D7" s="48" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E7" s="48"/>
       <c r="F7" s="48"/>
@@ -6580,10 +6605,10 @@
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D9" s="59" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E9" s="59"/>
       <c r="F9" s="59"/>
@@ -6596,10 +6621,10 @@
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D10" s="59" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E10" s="59"/>
       <c r="F10" s="59"/>
@@ -6612,10 +6637,10 @@
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="52" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D11" s="53" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E11" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 4'!D11,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6634,10 +6659,10 @@
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="52" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D12" s="53" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E12" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 4'!D12,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6653,10 +6678,10 @@
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
       <c r="C13" s="52" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D13" s="53" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E13" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 4'!D13,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6672,10 +6697,10 @@
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="52" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D14" s="53" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E14" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 4'!D14,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6691,10 +6716,10 @@
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="C15" s="52" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D15" s="53" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E15" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 4'!D15,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6710,10 +6735,10 @@
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
       <c r="C16" s="52" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D16" s="53" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E16" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 4'!D16,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6729,10 +6754,10 @@
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" s="52" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D17" s="53" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E17" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 4'!D17,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6748,10 +6773,10 @@
       <c r="A18" s="7"/>
       <c r="B18" s="8"/>
       <c r="C18" s="52" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D18" s="53" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E18" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 4'!D18,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6767,10 +6792,10 @@
       <c r="A19" s="7"/>
       <c r="B19" s="8"/>
       <c r="C19" s="52" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D19" s="53" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E19" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 4'!D19,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6786,10 +6811,10 @@
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="52" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D20" s="53" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E20" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 4'!D20,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6805,10 +6830,10 @@
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="52" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D21" s="53" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E21" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 4'!D21,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6824,10 +6849,10 @@
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
       <c r="C22" s="52" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D22" s="53" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E22" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 4'!D22,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6843,10 +6868,10 @@
       <c r="A23" s="7"/>
       <c r="B23" s="8"/>
       <c r="C23" s="52" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D23" s="53" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E23" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 4'!D23,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6862,10 +6887,10 @@
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
       <c r="C24" s="52" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D24" s="53" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E24" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 4'!D24,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6881,10 +6906,10 @@
       <c r="A25" s="7"/>
       <c r="B25" s="8"/>
       <c r="C25" s="52" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D25" s="53" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E25" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 4'!D25,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6912,7 +6937,7 @@
       <c r="A27" s="7"/>
       <c r="B27" s="8"/>
       <c r="C27" s="56" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D27" s="57"/>
       <c r="E27" s="57"/>
@@ -7041,7 +7066,7 @@
   <sheetData>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>0</v>
@@ -7049,7 +7074,7 @@
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>1</v>
@@ -7057,7 +7082,7 @@
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>2</v>
@@ -7065,7 +7090,7 @@
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>3</v>
@@ -7073,7 +7098,7 @@
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>4</v>
@@ -7081,7 +7106,7 @@
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>5</v>

--- a/FichesTemps/VictorTurgeon-02.xlsx
+++ b/FichesTemps/VictorTurgeon-02.xlsx
@@ -1024,9 +1024,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>120600</xdr:colOff>
+      <xdr:colOff>120240</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>25200</xdr:rowOff>
+      <xdr:rowOff>24840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1040,7 +1040,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2302560" cy="844200"/>
+          <a:ext cx="2302200" cy="843840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1066,9 +1066,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>530280</xdr:colOff>
+      <xdr:colOff>529920</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>215640</xdr:rowOff>
+      <xdr:rowOff>215280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1082,7 +1082,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2404800" cy="787320"/>
+          <a:ext cx="2404440" cy="786960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1108,9 +1108,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>530280</xdr:colOff>
+      <xdr:colOff>529920</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>215640</xdr:rowOff>
+      <xdr:rowOff>215280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1124,7 +1124,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2404800" cy="787320"/>
+          <a:ext cx="2404440" cy="786960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1150,9 +1150,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>530280</xdr:colOff>
+      <xdr:colOff>529920</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>215640</xdr:rowOff>
+      <xdr:rowOff>215280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1166,7 +1166,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2404800" cy="787320"/>
+          <a:ext cx="2404440" cy="786960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1192,9 +1192,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>530280</xdr:colOff>
+      <xdr:colOff>529920</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>215640</xdr:rowOff>
+      <xdr:rowOff>215280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1208,7 +1208,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2404800" cy="787320"/>
+          <a:ext cx="2404440" cy="786960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1234,9 +1234,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>530280</xdr:colOff>
+      <xdr:colOff>529920</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>215640</xdr:rowOff>
+      <xdr:rowOff>215280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1250,7 +1250,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2404800" cy="787320"/>
+          <a:ext cx="2404440" cy="786960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1273,7 +1273,7 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1358,7 +1358,7 @@
       </c>
       <c r="C9" s="23" t="n">
         <f aca="false">SUM(C11:C462)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D9" s="24" t="s">
         <v>7</v>
@@ -1387,7 +1387,7 @@
       </c>
       <c r="B11" s="31"/>
       <c r="C11" s="32" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D11" s="31" t="s">
         <v>12</v>
@@ -1405,7 +1405,7 @@
       </c>
       <c r="B13" s="34"/>
       <c r="C13" s="35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" s="34" t="s">
         <v>14</v>

--- a/FichesTemps/VictorTurgeon-02.xlsx
+++ b/FichesTemps/VictorTurgeon-02.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="82">
   <si>
     <t xml:space="preserve">Feuille de temps - 420-6DY-HY Projets</t>
   </si>
@@ -128,6 +128,12 @@
   </si>
   <si>
     <t xml:space="preserve">Modification du diagramme de classe détaillé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01-02-2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Préparation du trello pour garder un suivi des tâches</t>
   </si>
   <si>
     <t xml:space="preserve">Fiche d'évaluation du travail d'équipe</t>
@@ -1024,9 +1030,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>120240</xdr:colOff>
+      <xdr:colOff>119880</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>24840</xdr:rowOff>
+      <xdr:rowOff>24480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1040,7 +1046,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2302200" cy="843840"/>
+          <a:ext cx="2596320" cy="843480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1066,9 +1072,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>529920</xdr:colOff>
+      <xdr:colOff>529560</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>215280</xdr:rowOff>
+      <xdr:rowOff>214920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1082,7 +1088,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2404440" cy="786960"/>
+          <a:ext cx="2657520" cy="786600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1108,9 +1114,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>529920</xdr:colOff>
+      <xdr:colOff>529560</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>215280</xdr:rowOff>
+      <xdr:rowOff>214920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1124,7 +1130,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2404440" cy="786960"/>
+          <a:ext cx="2657520" cy="786600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1150,9 +1156,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>529920</xdr:colOff>
+      <xdr:colOff>529560</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>215280</xdr:rowOff>
+      <xdr:rowOff>214920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1166,7 +1172,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2404440" cy="786960"/>
+          <a:ext cx="2657520" cy="786600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1192,9 +1198,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>529920</xdr:colOff>
+      <xdr:colOff>529560</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>215280</xdr:rowOff>
+      <xdr:rowOff>214920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1208,7 +1214,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2404440" cy="786960"/>
+          <a:ext cx="2657520" cy="786600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1234,9 +1240,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>529920</xdr:colOff>
+      <xdr:colOff>529560</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>215280</xdr:rowOff>
+      <xdr:rowOff>214920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1250,7 +1256,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2404440" cy="786960"/>
+          <a:ext cx="2657520" cy="786600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1272,8 +1278,8 @@
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1358,7 +1364,7 @@
       </c>
       <c r="C9" s="23" t="n">
         <f aca="false">SUM(C11:C462)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D9" s="24" t="s">
         <v>7</v>
@@ -1442,10 +1448,16 @@
       <c r="D16" s="34"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="33"/>
+      <c r="A17" s="33" t="s">
+        <v>17</v>
+      </c>
       <c r="B17" s="34"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="34"/>
+      <c r="C17" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="33"/>
@@ -4183,7 +4195,7 @@
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
       <c r="C2" s="39" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D2" s="39"/>
       <c r="E2" s="39"/>
@@ -4232,10 +4244,10 @@
     <row r="6" customFormat="false" ht="138" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="7"/>
       <c r="B6" s="42" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D6" s="43"/>
       <c r="E6" s="43"/>
@@ -4260,13 +4272,13 @@
     <row r="8" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="7"/>
       <c r="B8" s="42" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" s="44" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D8" s="45" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E8" s="46"/>
       <c r="F8" s="46"/>
@@ -4290,13 +4302,13 @@
     <row r="10" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="7"/>
       <c r="B10" s="47" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" s="44" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" s="48" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E10" s="48"/>
       <c r="F10" s="48"/>
@@ -4321,7 +4333,7 @@
       <c r="A12" s="7"/>
       <c r="B12" s="47"/>
       <c r="C12" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D12" s="51" t="str">
         <f aca="false">Temps!D6</f>
@@ -4338,7 +4350,7 @@
       <c r="A13" s="7"/>
       <c r="B13" s="47"/>
       <c r="C13" s="8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D13" s="51" t="str">
         <f aca="false">Temps!D7</f>
@@ -4355,10 +4367,10 @@
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="52" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D14" s="53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E14" s="54" t="n">
         <f aca="false">VLOOKUP(Évaluateur!D14,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -4377,10 +4389,10 @@
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="C15" s="52" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D15" s="53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E15" s="54" t="n">
         <f aca="false">VLOOKUP(Évaluateur!D15,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -4396,10 +4408,10 @@
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
       <c r="C16" s="52" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D16" s="53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E16" s="54" t="n">
         <f aca="false">VLOOKUP(Évaluateur!D16,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -4415,10 +4427,10 @@
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" s="52" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D17" s="53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E17" s="54" t="n">
         <f aca="false">VLOOKUP(Évaluateur!D17,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -4434,10 +4446,10 @@
       <c r="A18" s="7"/>
       <c r="B18" s="8"/>
       <c r="C18" s="52" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D18" s="53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E18" s="54" t="n">
         <f aca="false">VLOOKUP(Évaluateur!D18,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -4453,10 +4465,10 @@
       <c r="A19" s="7"/>
       <c r="B19" s="8"/>
       <c r="C19" s="52" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D19" s="53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E19" s="54" t="n">
         <f aca="false">VLOOKUP(Évaluateur!D19,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -4472,10 +4484,10 @@
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="52" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D20" s="53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E20" s="54" t="n">
         <f aca="false">VLOOKUP(Évaluateur!D20,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -4491,10 +4503,10 @@
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="52" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D21" s="53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E21" s="54" t="n">
         <f aca="false">VLOOKUP(Évaluateur!D21,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -4510,10 +4522,10 @@
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
       <c r="C22" s="52" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D22" s="53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E22" s="54" t="n">
         <f aca="false">VLOOKUP(Évaluateur!D22,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -4529,10 +4541,10 @@
       <c r="A23" s="7"/>
       <c r="B23" s="8"/>
       <c r="C23" s="52" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D23" s="53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E23" s="54" t="n">
         <f aca="false">VLOOKUP(Évaluateur!D23,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -4548,10 +4560,10 @@
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
       <c r="C24" s="52" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D24" s="53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E24" s="54" t="n">
         <f aca="false">VLOOKUP(Évaluateur!D24,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -4567,10 +4579,10 @@
       <c r="A25" s="7"/>
       <c r="B25" s="8"/>
       <c r="C25" s="52" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D25" s="53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E25" s="54" t="n">
         <f aca="false">VLOOKUP(Évaluateur!D25,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -4586,10 +4598,10 @@
       <c r="A26" s="7"/>
       <c r="B26" s="8"/>
       <c r="C26" s="52" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D26" s="53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E26" s="54" t="n">
         <f aca="false">VLOOKUP(Évaluateur!D26,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -4605,10 +4617,10 @@
       <c r="A27" s="7"/>
       <c r="B27" s="8"/>
       <c r="C27" s="52" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D27" s="53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E27" s="54" t="n">
         <f aca="false">VLOOKUP(Évaluateur!D27,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -4624,10 +4636,10 @@
       <c r="A28" s="7"/>
       <c r="B28" s="8"/>
       <c r="C28" s="52" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D28" s="53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E28" s="54" t="n">
         <f aca="false">VLOOKUP(Évaluateur!D28,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -4655,7 +4667,7 @@
       <c r="A30" s="7"/>
       <c r="B30" s="8"/>
       <c r="C30" s="56" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D30" s="57"/>
       <c r="E30" s="57"/>
@@ -4803,7 +4815,7 @@
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
       <c r="C2" s="39" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D2" s="39"/>
       <c r="E2" s="39"/>
@@ -4864,13 +4876,13 @@
     <row r="7" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="7"/>
       <c r="B7" s="47" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D7" s="48" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E7" s="48"/>
       <c r="F7" s="48"/>
@@ -4895,10 +4907,10 @@
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D9" s="59" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E9" s="59"/>
       <c r="F9" s="59"/>
@@ -4911,10 +4923,10 @@
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D10" s="59" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E10" s="59"/>
       <c r="F10" s="59"/>
@@ -4927,10 +4939,10 @@
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="52" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D11" s="53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E11" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 1'!D11,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -4949,10 +4961,10 @@
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="52" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D12" s="53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E12" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 1'!D12,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -4968,10 +4980,10 @@
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
       <c r="C13" s="52" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D13" s="53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E13" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 1'!D13,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -4987,10 +4999,10 @@
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="52" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D14" s="53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E14" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 1'!D14,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5006,10 +5018,10 @@
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="C15" s="52" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D15" s="53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E15" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 1'!D15,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5025,10 +5037,10 @@
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
       <c r="C16" s="52" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D16" s="53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E16" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 1'!D16,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5044,10 +5056,10 @@
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" s="52" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D17" s="53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E17" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 1'!D17,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5063,10 +5075,10 @@
       <c r="A18" s="7"/>
       <c r="B18" s="8"/>
       <c r="C18" s="52" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D18" s="53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E18" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 1'!D18,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5082,10 +5094,10 @@
       <c r="A19" s="7"/>
       <c r="B19" s="8"/>
       <c r="C19" s="52" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D19" s="53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E19" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 1'!D19,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5101,10 +5113,10 @@
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="52" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D20" s="53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E20" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 1'!D20,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5120,10 +5132,10 @@
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="52" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D21" s="53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E21" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 1'!D21,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5139,10 +5151,10 @@
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
       <c r="C22" s="52" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D22" s="53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E22" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 1'!D22,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5158,10 +5170,10 @@
       <c r="A23" s="7"/>
       <c r="B23" s="8"/>
       <c r="C23" s="52" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D23" s="53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E23" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 1'!D23,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5177,10 +5189,10 @@
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
       <c r="C24" s="52" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D24" s="53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E24" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 1'!D24,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5196,10 +5208,10 @@
       <c r="A25" s="7"/>
       <c r="B25" s="8"/>
       <c r="C25" s="52" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D25" s="53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E25" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 1'!D25,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5227,7 +5239,7 @@
       <c r="A27" s="7"/>
       <c r="B27" s="8"/>
       <c r="C27" s="56" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D27" s="61"/>
       <c r="E27" s="61"/>
@@ -5373,7 +5385,7 @@
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
       <c r="C2" s="39" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D2" s="39"/>
       <c r="E2" s="39"/>
@@ -5434,13 +5446,13 @@
     <row r="7" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="7"/>
       <c r="B7" s="47" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D7" s="48" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E7" s="48"/>
       <c r="F7" s="48"/>
@@ -5465,10 +5477,10 @@
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D9" s="59" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E9" s="59"/>
       <c r="F9" s="59"/>
@@ -5481,10 +5493,10 @@
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D10" s="59" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E10" s="59"/>
       <c r="F10" s="59"/>
@@ -5497,10 +5509,10 @@
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="52" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D11" s="53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E11" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 2'!D11,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5519,10 +5531,10 @@
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="52" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D12" s="53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E12" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 2'!D12,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5538,10 +5550,10 @@
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
       <c r="C13" s="52" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D13" s="53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E13" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 2'!D13,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5557,10 +5569,10 @@
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="52" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D14" s="53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E14" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 2'!D14,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5576,10 +5588,10 @@
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="C15" s="52" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D15" s="53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E15" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 2'!D15,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5595,10 +5607,10 @@
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
       <c r="C16" s="52" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D16" s="53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E16" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 2'!D16,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5614,10 +5626,10 @@
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" s="52" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D17" s="53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E17" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 2'!D17,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5633,10 +5645,10 @@
       <c r="A18" s="7"/>
       <c r="B18" s="8"/>
       <c r="C18" s="52" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D18" s="53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E18" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 2'!D18,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5652,10 +5664,10 @@
       <c r="A19" s="7"/>
       <c r="B19" s="8"/>
       <c r="C19" s="52" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D19" s="53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E19" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 2'!D19,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5671,10 +5683,10 @@
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="52" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D20" s="53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E20" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 2'!D20,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5690,10 +5702,10 @@
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="52" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D21" s="53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E21" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 2'!D21,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5709,10 +5721,10 @@
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
       <c r="C22" s="52" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D22" s="53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E22" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 2'!D22,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5728,10 +5740,10 @@
       <c r="A23" s="7"/>
       <c r="B23" s="8"/>
       <c r="C23" s="52" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D23" s="53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E23" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 2'!D23,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5747,10 +5759,10 @@
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
       <c r="C24" s="52" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D24" s="53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E24" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 2'!D24,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5766,10 +5778,10 @@
       <c r="A25" s="7"/>
       <c r="B25" s="8"/>
       <c r="C25" s="52" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D25" s="53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E25" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 2'!D25,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5797,7 +5809,7 @@
       <c r="A27" s="7"/>
       <c r="B27" s="8"/>
       <c r="C27" s="56" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D27" s="57"/>
       <c r="E27" s="57"/>
@@ -5943,7 +5955,7 @@
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
       <c r="C2" s="39" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D2" s="39"/>
       <c r="E2" s="39"/>
@@ -6004,13 +6016,13 @@
     <row r="7" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="7"/>
       <c r="B7" s="47" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D7" s="48" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E7" s="48"/>
       <c r="F7" s="48"/>
@@ -6035,10 +6047,10 @@
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D9" s="59" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E9" s="59"/>
       <c r="F9" s="59"/>
@@ -6051,10 +6063,10 @@
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D10" s="59" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E10" s="59"/>
       <c r="F10" s="59"/>
@@ -6067,10 +6079,10 @@
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="52" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D11" s="53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E11" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 3'!D11,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6089,10 +6101,10 @@
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="52" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D12" s="53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E12" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 3'!D12,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6108,10 +6120,10 @@
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
       <c r="C13" s="52" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D13" s="53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E13" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 3'!D13,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6127,10 +6139,10 @@
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="52" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D14" s="53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E14" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 3'!D14,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6146,10 +6158,10 @@
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="C15" s="52" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D15" s="53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E15" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 3'!D15,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6165,10 +6177,10 @@
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
       <c r="C16" s="52" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D16" s="53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E16" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 3'!D16,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6184,10 +6196,10 @@
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" s="52" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D17" s="53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E17" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 3'!D17,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6203,10 +6215,10 @@
       <c r="A18" s="7"/>
       <c r="B18" s="8"/>
       <c r="C18" s="52" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D18" s="53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E18" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 3'!D18,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6222,10 +6234,10 @@
       <c r="A19" s="7"/>
       <c r="B19" s="8"/>
       <c r="C19" s="52" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D19" s="53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E19" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 3'!D19,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6241,10 +6253,10 @@
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="52" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D20" s="53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E20" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 3'!D20,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6260,10 +6272,10 @@
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="52" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D21" s="53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E21" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 3'!D21,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6279,10 +6291,10 @@
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
       <c r="C22" s="52" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D22" s="53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E22" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 3'!D22,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6298,10 +6310,10 @@
       <c r="A23" s="7"/>
       <c r="B23" s="8"/>
       <c r="C23" s="52" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D23" s="53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E23" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 3'!D23,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6317,10 +6329,10 @@
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
       <c r="C24" s="52" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D24" s="53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E24" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 3'!D24,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6336,10 +6348,10 @@
       <c r="A25" s="7"/>
       <c r="B25" s="8"/>
       <c r="C25" s="52" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D25" s="53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E25" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 3'!D25,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6367,7 +6379,7 @@
       <c r="A27" s="7"/>
       <c r="B27" s="8"/>
       <c r="C27" s="56" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D27" s="57"/>
       <c r="E27" s="57"/>
@@ -6513,7 +6525,7 @@
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
       <c r="C2" s="39" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D2" s="39"/>
       <c r="E2" s="39"/>
@@ -6574,13 +6586,13 @@
     <row r="7" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="7"/>
       <c r="B7" s="47" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D7" s="48" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E7" s="48"/>
       <c r="F7" s="48"/>
@@ -6605,10 +6617,10 @@
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D9" s="59" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E9" s="59"/>
       <c r="F9" s="59"/>
@@ -6621,10 +6633,10 @@
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D10" s="59" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E10" s="59"/>
       <c r="F10" s="59"/>
@@ -6637,10 +6649,10 @@
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="52" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D11" s="53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E11" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 4'!D11,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6659,10 +6671,10 @@
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="52" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D12" s="53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E12" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 4'!D12,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6678,10 +6690,10 @@
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
       <c r="C13" s="52" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D13" s="53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E13" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 4'!D13,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6697,10 +6709,10 @@
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="52" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D14" s="53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E14" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 4'!D14,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6716,10 +6728,10 @@
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="C15" s="52" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D15" s="53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E15" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 4'!D15,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6735,10 +6747,10 @@
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
       <c r="C16" s="52" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D16" s="53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E16" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 4'!D16,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6754,10 +6766,10 @@
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" s="52" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D17" s="53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E17" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 4'!D17,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6773,10 +6785,10 @@
       <c r="A18" s="7"/>
       <c r="B18" s="8"/>
       <c r="C18" s="52" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D18" s="53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E18" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 4'!D18,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6792,10 +6804,10 @@
       <c r="A19" s="7"/>
       <c r="B19" s="8"/>
       <c r="C19" s="52" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D19" s="53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E19" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 4'!D19,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6811,10 +6823,10 @@
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="52" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D20" s="53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E20" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 4'!D20,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6830,10 +6842,10 @@
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="52" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D21" s="53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E21" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 4'!D21,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6849,10 +6861,10 @@
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
       <c r="C22" s="52" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D22" s="53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E22" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 4'!D22,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6868,10 +6880,10 @@
       <c r="A23" s="7"/>
       <c r="B23" s="8"/>
       <c r="C23" s="52" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D23" s="53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E23" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 4'!D23,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6887,10 +6899,10 @@
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
       <c r="C24" s="52" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D24" s="53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E24" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 4'!D24,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6906,10 +6918,10 @@
       <c r="A25" s="7"/>
       <c r="B25" s="8"/>
       <c r="C25" s="52" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D25" s="53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E25" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 4'!D25,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6937,7 +6949,7 @@
       <c r="A27" s="7"/>
       <c r="B27" s="8"/>
       <c r="C27" s="56" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D27" s="57"/>
       <c r="E27" s="57"/>
@@ -7066,7 +7078,7 @@
   <sheetData>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>0</v>
@@ -7074,7 +7086,7 @@
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>1</v>
@@ -7082,7 +7094,7 @@
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>2</v>
@@ -7090,7 +7102,7 @@
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>3</v>
@@ -7098,7 +7110,7 @@
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>4</v>
@@ -7106,7 +7118,7 @@
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>5</v>

--- a/FichesTemps/VictorTurgeon-02.xlsx
+++ b/FichesTemps/VictorTurgeon-02.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="85">
   <si>
     <t xml:space="preserve">Feuille de temps - 420-6DY-HY Projets</t>
   </si>
@@ -134,6 +134,15 @@
   </si>
   <si>
     <t xml:space="preserve">Préparation du trello pour garder un suivi des tâches</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02-02-2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fonction pour la recherche des dossiers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barre de recherche et ajustements pour l’affichage après une recherche.</t>
   </si>
   <si>
     <t xml:space="preserve">Fiche d'évaluation du travail d'équipe</t>
@@ -1030,9 +1039,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>119880</xdr:colOff>
+      <xdr:colOff>119520</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>24480</xdr:rowOff>
+      <xdr:rowOff>24120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1046,7 +1055,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2596320" cy="843480"/>
+          <a:ext cx="2301480" cy="843120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1072,9 +1081,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>529560</xdr:colOff>
+      <xdr:colOff>529200</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>214920</xdr:rowOff>
+      <xdr:rowOff>214560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1088,7 +1097,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2657520" cy="786600"/>
+          <a:ext cx="2403720" cy="786240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1114,9 +1123,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>529560</xdr:colOff>
+      <xdr:colOff>529200</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>214920</xdr:rowOff>
+      <xdr:rowOff>214560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1130,7 +1139,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2657520" cy="786600"/>
+          <a:ext cx="2403720" cy="786240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1156,9 +1165,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>529560</xdr:colOff>
+      <xdr:colOff>529200</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>214920</xdr:rowOff>
+      <xdr:rowOff>214560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1172,7 +1181,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2657520" cy="786600"/>
+          <a:ext cx="2403720" cy="786240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1198,9 +1207,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>529560</xdr:colOff>
+      <xdr:colOff>529200</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>214920</xdr:rowOff>
+      <xdr:rowOff>214560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1214,7 +1223,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2657520" cy="786600"/>
+          <a:ext cx="2403720" cy="786240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1240,9 +1249,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>529560</xdr:colOff>
+      <xdr:colOff>529200</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>214920</xdr:rowOff>
+      <xdr:rowOff>214560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1256,7 +1265,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2657520" cy="786600"/>
+          <a:ext cx="2403720" cy="786240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1278,8 +1287,8 @@
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1364,7 +1373,7 @@
       </c>
       <c r="C9" s="23" t="n">
         <f aca="false">SUM(C11:C462)</f>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D9" s="24" t="s">
         <v>7</v>
@@ -1466,16 +1475,32 @@
       <c r="D18" s="34"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="33"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="34"/>
+      <c r="A19" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="34" t="n">
+        <v>36</v>
+      </c>
+      <c r="C19" s="35" t="n">
+        <v>2</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="33"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="34"/>
+      <c r="A20" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="34" t="n">
+        <v>37</v>
+      </c>
+      <c r="C20" s="35" t="n">
+        <v>3</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="33"/>
@@ -4195,7 +4220,7 @@
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
       <c r="C2" s="39" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D2" s="39"/>
       <c r="E2" s="39"/>
@@ -4244,10 +4269,10 @@
     <row r="6" customFormat="false" ht="138" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="7"/>
       <c r="B6" s="42" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D6" s="43"/>
       <c r="E6" s="43"/>
@@ -4272,13 +4297,13 @@
     <row r="8" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="7"/>
       <c r="B8" s="42" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" s="44" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" s="45" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E8" s="46"/>
       <c r="F8" s="46"/>
@@ -4302,13 +4327,13 @@
     <row r="10" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="7"/>
       <c r="B10" s="47" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C10" s="44" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D10" s="48" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E10" s="48"/>
       <c r="F10" s="48"/>
@@ -4333,7 +4358,7 @@
       <c r="A12" s="7"/>
       <c r="B12" s="47"/>
       <c r="C12" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D12" s="51" t="str">
         <f aca="false">Temps!D6</f>
@@ -4350,7 +4375,7 @@
       <c r="A13" s="7"/>
       <c r="B13" s="47"/>
       <c r="C13" s="8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D13" s="51" t="str">
         <f aca="false">Temps!D7</f>
@@ -4367,10 +4392,10 @@
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="52" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D14" s="53" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E14" s="54" t="n">
         <f aca="false">VLOOKUP(Évaluateur!D14,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -4389,10 +4414,10 @@
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="C15" s="52" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D15" s="53" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E15" s="54" t="n">
         <f aca="false">VLOOKUP(Évaluateur!D15,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -4408,10 +4433,10 @@
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
       <c r="C16" s="52" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D16" s="53" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E16" s="54" t="n">
         <f aca="false">VLOOKUP(Évaluateur!D16,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -4427,10 +4452,10 @@
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" s="52" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D17" s="53" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E17" s="54" t="n">
         <f aca="false">VLOOKUP(Évaluateur!D17,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -4446,10 +4471,10 @@
       <c r="A18" s="7"/>
       <c r="B18" s="8"/>
       <c r="C18" s="52" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D18" s="53" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E18" s="54" t="n">
         <f aca="false">VLOOKUP(Évaluateur!D18,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -4465,10 +4490,10 @@
       <c r="A19" s="7"/>
       <c r="B19" s="8"/>
       <c r="C19" s="52" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D19" s="53" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E19" s="54" t="n">
         <f aca="false">VLOOKUP(Évaluateur!D19,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -4484,10 +4509,10 @@
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="52" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D20" s="53" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E20" s="54" t="n">
         <f aca="false">VLOOKUP(Évaluateur!D20,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -4503,10 +4528,10 @@
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="52" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D21" s="53" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E21" s="54" t="n">
         <f aca="false">VLOOKUP(Évaluateur!D21,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -4522,10 +4547,10 @@
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
       <c r="C22" s="52" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D22" s="53" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E22" s="54" t="n">
         <f aca="false">VLOOKUP(Évaluateur!D22,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -4541,10 +4566,10 @@
       <c r="A23" s="7"/>
       <c r="B23" s="8"/>
       <c r="C23" s="52" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D23" s="53" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E23" s="54" t="n">
         <f aca="false">VLOOKUP(Évaluateur!D23,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -4560,10 +4585,10 @@
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
       <c r="C24" s="52" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D24" s="53" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E24" s="54" t="n">
         <f aca="false">VLOOKUP(Évaluateur!D24,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -4579,10 +4604,10 @@
       <c r="A25" s="7"/>
       <c r="B25" s="8"/>
       <c r="C25" s="52" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D25" s="53" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E25" s="54" t="n">
         <f aca="false">VLOOKUP(Évaluateur!D25,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -4598,10 +4623,10 @@
       <c r="A26" s="7"/>
       <c r="B26" s="8"/>
       <c r="C26" s="52" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D26" s="53" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E26" s="54" t="n">
         <f aca="false">VLOOKUP(Évaluateur!D26,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -4617,10 +4642,10 @@
       <c r="A27" s="7"/>
       <c r="B27" s="8"/>
       <c r="C27" s="52" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D27" s="53" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E27" s="54" t="n">
         <f aca="false">VLOOKUP(Évaluateur!D27,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -4636,10 +4661,10 @@
       <c r="A28" s="7"/>
       <c r="B28" s="8"/>
       <c r="C28" s="52" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D28" s="53" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E28" s="54" t="n">
         <f aca="false">VLOOKUP(Évaluateur!D28,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -4667,7 +4692,7 @@
       <c r="A30" s="7"/>
       <c r="B30" s="8"/>
       <c r="C30" s="56" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D30" s="57"/>
       <c r="E30" s="57"/>
@@ -4815,7 +4840,7 @@
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
       <c r="C2" s="39" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D2" s="39"/>
       <c r="E2" s="39"/>
@@ -4876,13 +4901,13 @@
     <row r="7" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="7"/>
       <c r="B7" s="47" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D7" s="48" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E7" s="48"/>
       <c r="F7" s="48"/>
@@ -4907,10 +4932,10 @@
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D9" s="59" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E9" s="59"/>
       <c r="F9" s="59"/>
@@ -4923,10 +4948,10 @@
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D10" s="59" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E10" s="59"/>
       <c r="F10" s="59"/>
@@ -4939,10 +4964,10 @@
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="52" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D11" s="53" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E11" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 1'!D11,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -4961,10 +4986,10 @@
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="52" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D12" s="53" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E12" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 1'!D12,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -4980,10 +5005,10 @@
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
       <c r="C13" s="52" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D13" s="53" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E13" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 1'!D13,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -4999,10 +5024,10 @@
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="52" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D14" s="53" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E14" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 1'!D14,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5018,10 +5043,10 @@
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="C15" s="52" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D15" s="53" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E15" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 1'!D15,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5037,10 +5062,10 @@
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
       <c r="C16" s="52" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D16" s="53" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E16" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 1'!D16,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5056,10 +5081,10 @@
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" s="52" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D17" s="53" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E17" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 1'!D17,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5075,10 +5100,10 @@
       <c r="A18" s="7"/>
       <c r="B18" s="8"/>
       <c r="C18" s="52" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D18" s="53" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E18" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 1'!D18,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5094,10 +5119,10 @@
       <c r="A19" s="7"/>
       <c r="B19" s="8"/>
       <c r="C19" s="52" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D19" s="53" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E19" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 1'!D19,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5113,10 +5138,10 @@
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="52" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D20" s="53" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E20" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 1'!D20,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5132,10 +5157,10 @@
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="52" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D21" s="53" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E21" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 1'!D21,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5151,10 +5176,10 @@
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
       <c r="C22" s="52" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D22" s="53" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E22" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 1'!D22,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5170,10 +5195,10 @@
       <c r="A23" s="7"/>
       <c r="B23" s="8"/>
       <c r="C23" s="52" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D23" s="53" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E23" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 1'!D23,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5189,10 +5214,10 @@
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
       <c r="C24" s="52" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D24" s="53" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E24" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 1'!D24,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5208,10 +5233,10 @@
       <c r="A25" s="7"/>
       <c r="B25" s="8"/>
       <c r="C25" s="52" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D25" s="53" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E25" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 1'!D25,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5239,7 +5264,7 @@
       <c r="A27" s="7"/>
       <c r="B27" s="8"/>
       <c r="C27" s="56" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D27" s="61"/>
       <c r="E27" s="61"/>
@@ -5385,7 +5410,7 @@
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
       <c r="C2" s="39" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D2" s="39"/>
       <c r="E2" s="39"/>
@@ -5446,13 +5471,13 @@
     <row r="7" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="7"/>
       <c r="B7" s="47" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D7" s="48" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E7" s="48"/>
       <c r="F7" s="48"/>
@@ -5477,10 +5502,10 @@
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D9" s="59" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E9" s="59"/>
       <c r="F9" s="59"/>
@@ -5493,10 +5518,10 @@
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D10" s="59" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E10" s="59"/>
       <c r="F10" s="59"/>
@@ -5509,10 +5534,10 @@
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="52" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D11" s="53" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E11" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 2'!D11,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5531,10 +5556,10 @@
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="52" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D12" s="53" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E12" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 2'!D12,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5550,10 +5575,10 @@
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
       <c r="C13" s="52" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D13" s="53" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E13" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 2'!D13,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5569,10 +5594,10 @@
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="52" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D14" s="53" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E14" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 2'!D14,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5588,10 +5613,10 @@
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="C15" s="52" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D15" s="53" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E15" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 2'!D15,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5607,10 +5632,10 @@
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
       <c r="C16" s="52" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D16" s="53" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E16" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 2'!D16,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5626,10 +5651,10 @@
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" s="52" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D17" s="53" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E17" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 2'!D17,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5645,10 +5670,10 @@
       <c r="A18" s="7"/>
       <c r="B18" s="8"/>
       <c r="C18" s="52" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D18" s="53" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E18" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 2'!D18,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5664,10 +5689,10 @@
       <c r="A19" s="7"/>
       <c r="B19" s="8"/>
       <c r="C19" s="52" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D19" s="53" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E19" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 2'!D19,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5683,10 +5708,10 @@
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="52" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D20" s="53" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E20" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 2'!D20,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5702,10 +5727,10 @@
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="52" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D21" s="53" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E21" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 2'!D21,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5721,10 +5746,10 @@
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
       <c r="C22" s="52" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D22" s="53" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E22" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 2'!D22,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5740,10 +5765,10 @@
       <c r="A23" s="7"/>
       <c r="B23" s="8"/>
       <c r="C23" s="52" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D23" s="53" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E23" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 2'!D23,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5759,10 +5784,10 @@
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
       <c r="C24" s="52" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D24" s="53" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E24" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 2'!D24,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5778,10 +5803,10 @@
       <c r="A25" s="7"/>
       <c r="B25" s="8"/>
       <c r="C25" s="52" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D25" s="53" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E25" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 2'!D25,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5809,7 +5834,7 @@
       <c r="A27" s="7"/>
       <c r="B27" s="8"/>
       <c r="C27" s="56" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D27" s="57"/>
       <c r="E27" s="57"/>
@@ -5955,7 +5980,7 @@
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
       <c r="C2" s="39" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D2" s="39"/>
       <c r="E2" s="39"/>
@@ -6016,13 +6041,13 @@
     <row r="7" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="7"/>
       <c r="B7" s="47" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D7" s="48" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E7" s="48"/>
       <c r="F7" s="48"/>
@@ -6047,10 +6072,10 @@
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D9" s="59" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E9" s="59"/>
       <c r="F9" s="59"/>
@@ -6063,10 +6088,10 @@
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D10" s="59" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E10" s="59"/>
       <c r="F10" s="59"/>
@@ -6079,10 +6104,10 @@
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="52" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D11" s="53" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E11" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 3'!D11,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6101,10 +6126,10 @@
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="52" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D12" s="53" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E12" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 3'!D12,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6120,10 +6145,10 @@
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
       <c r="C13" s="52" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D13" s="53" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E13" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 3'!D13,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6139,10 +6164,10 @@
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="52" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D14" s="53" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E14" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 3'!D14,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6158,10 +6183,10 @@
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="C15" s="52" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D15" s="53" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E15" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 3'!D15,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6177,10 +6202,10 @@
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
       <c r="C16" s="52" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D16" s="53" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E16" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 3'!D16,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6196,10 +6221,10 @@
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" s="52" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D17" s="53" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E17" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 3'!D17,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6215,10 +6240,10 @@
       <c r="A18" s="7"/>
       <c r="B18" s="8"/>
       <c r="C18" s="52" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D18" s="53" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E18" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 3'!D18,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6234,10 +6259,10 @@
       <c r="A19" s="7"/>
       <c r="B19" s="8"/>
       <c r="C19" s="52" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D19" s="53" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E19" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 3'!D19,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6253,10 +6278,10 @@
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="52" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D20" s="53" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E20" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 3'!D20,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6272,10 +6297,10 @@
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="52" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D21" s="53" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E21" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 3'!D21,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6291,10 +6316,10 @@
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
       <c r="C22" s="52" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D22" s="53" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E22" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 3'!D22,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6310,10 +6335,10 @@
       <c r="A23" s="7"/>
       <c r="B23" s="8"/>
       <c r="C23" s="52" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D23" s="53" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E23" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 3'!D23,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6329,10 +6354,10 @@
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
       <c r="C24" s="52" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D24" s="53" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E24" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 3'!D24,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6348,10 +6373,10 @@
       <c r="A25" s="7"/>
       <c r="B25" s="8"/>
       <c r="C25" s="52" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D25" s="53" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E25" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 3'!D25,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6379,7 +6404,7 @@
       <c r="A27" s="7"/>
       <c r="B27" s="8"/>
       <c r="C27" s="56" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D27" s="57"/>
       <c r="E27" s="57"/>
@@ -6525,7 +6550,7 @@
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
       <c r="C2" s="39" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D2" s="39"/>
       <c r="E2" s="39"/>
@@ -6586,13 +6611,13 @@
     <row r="7" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="7"/>
       <c r="B7" s="47" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D7" s="48" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E7" s="48"/>
       <c r="F7" s="48"/>
@@ -6617,10 +6642,10 @@
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D9" s="59" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E9" s="59"/>
       <c r="F9" s="59"/>
@@ -6633,10 +6658,10 @@
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D10" s="59" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E10" s="59"/>
       <c r="F10" s="59"/>
@@ -6649,10 +6674,10 @@
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="52" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D11" s="53" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E11" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 4'!D11,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6671,10 +6696,10 @@
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="52" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D12" s="53" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E12" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 4'!D12,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6690,10 +6715,10 @@
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
       <c r="C13" s="52" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D13" s="53" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E13" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 4'!D13,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6709,10 +6734,10 @@
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="52" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D14" s="53" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E14" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 4'!D14,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6728,10 +6753,10 @@
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="C15" s="52" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D15" s="53" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E15" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 4'!D15,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6747,10 +6772,10 @@
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
       <c r="C16" s="52" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D16" s="53" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E16" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 4'!D16,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6766,10 +6791,10 @@
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" s="52" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D17" s="53" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E17" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 4'!D17,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6785,10 +6810,10 @@
       <c r="A18" s="7"/>
       <c r="B18" s="8"/>
       <c r="C18" s="52" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D18" s="53" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E18" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 4'!D18,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6804,10 +6829,10 @@
       <c r="A19" s="7"/>
       <c r="B19" s="8"/>
       <c r="C19" s="52" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D19" s="53" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E19" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 4'!D19,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6823,10 +6848,10 @@
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="52" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D20" s="53" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E20" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 4'!D20,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6842,10 +6867,10 @@
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="52" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D21" s="53" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E21" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 4'!D21,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6861,10 +6886,10 @@
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
       <c r="C22" s="52" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D22" s="53" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E22" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 4'!D22,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6880,10 +6905,10 @@
       <c r="A23" s="7"/>
       <c r="B23" s="8"/>
       <c r="C23" s="52" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D23" s="53" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E23" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 4'!D23,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6899,10 +6924,10 @@
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
       <c r="C24" s="52" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D24" s="53" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E24" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 4'!D24,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6918,10 +6943,10 @@
       <c r="A25" s="7"/>
       <c r="B25" s="8"/>
       <c r="C25" s="52" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D25" s="53" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E25" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 4'!D25,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6949,7 +6974,7 @@
       <c r="A27" s="7"/>
       <c r="B27" s="8"/>
       <c r="C27" s="56" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D27" s="57"/>
       <c r="E27" s="57"/>
@@ -7078,7 +7103,7 @@
   <sheetData>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>0</v>
@@ -7086,7 +7111,7 @@
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>1</v>
@@ -7094,7 +7119,7 @@
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>2</v>
@@ -7102,7 +7127,7 @@
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>3</v>
@@ -7110,7 +7135,7 @@
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>4</v>
@@ -7118,7 +7143,7 @@
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>5</v>

--- a/FichesTemps/VictorTurgeon-02.xlsx
+++ b/FichesTemps/VictorTurgeon-02.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="87">
   <si>
     <t xml:space="preserve">Feuille de temps - 420-6DY-HY Projets</t>
   </si>
@@ -143,6 +143,12 @@
   </si>
   <si>
     <t xml:space="preserve">Barre de recherche et ajustements pour l’affichage après une recherche.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lier à l’API pour chercher les dossiers dans la BD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02-05-2023</t>
   </si>
   <si>
     <t xml:space="preserve">Fiche d'évaluation du travail d'équipe</t>
@@ -1039,9 +1045,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>119520</xdr:colOff>
+      <xdr:colOff>119160</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>24120</xdr:rowOff>
+      <xdr:rowOff>23760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1055,7 +1061,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2301480" cy="843120"/>
+          <a:ext cx="2595600" cy="842760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1081,9 +1087,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>529200</xdr:colOff>
+      <xdr:colOff>528840</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>214560</xdr:rowOff>
+      <xdr:rowOff>214200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1097,7 +1103,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2403720" cy="786240"/>
+          <a:ext cx="2656800" cy="785880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1123,9 +1129,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>529200</xdr:colOff>
+      <xdr:colOff>528840</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>214560</xdr:rowOff>
+      <xdr:rowOff>214200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1139,7 +1145,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2403720" cy="786240"/>
+          <a:ext cx="2656800" cy="785880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1165,9 +1171,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>529200</xdr:colOff>
+      <xdr:colOff>528840</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>214560</xdr:rowOff>
+      <xdr:rowOff>214200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1181,7 +1187,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2403720" cy="786240"/>
+          <a:ext cx="2656800" cy="785880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1207,9 +1213,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>529200</xdr:colOff>
+      <xdr:colOff>528840</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>214560</xdr:rowOff>
+      <xdr:rowOff>214200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1223,7 +1229,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2403720" cy="786240"/>
+          <a:ext cx="2656800" cy="785880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1249,9 +1255,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>529200</xdr:colOff>
+      <xdr:colOff>528840</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>214560</xdr:rowOff>
+      <xdr:rowOff>214200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1265,7 +1271,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2403720" cy="786240"/>
+          <a:ext cx="2656800" cy="785880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1288,7 +1294,7 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
+      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1373,7 +1379,7 @@
       </c>
       <c r="C9" s="23" t="n">
         <f aca="false">SUM(C11:C462)</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D9" s="24" t="s">
         <v>7</v>
@@ -1503,10 +1509,18 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="33"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="34"/>
+      <c r="A21" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="34" t="n">
+        <v>34</v>
+      </c>
+      <c r="C21" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="33"/>
@@ -1515,10 +1529,18 @@
       <c r="D22" s="34"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="33"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="34"/>
+      <c r="A23" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="34" t="n">
+        <v>34</v>
+      </c>
+      <c r="C23" s="35" t="n">
+        <v>2</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="33"/>
@@ -4220,7 +4242,7 @@
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
       <c r="C2" s="39" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" s="39"/>
       <c r="E2" s="39"/>
@@ -4269,10 +4291,10 @@
     <row r="6" customFormat="false" ht="138" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="7"/>
       <c r="B6" s="42" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" s="43"/>
       <c r="E6" s="43"/>
@@ -4297,13 +4319,13 @@
     <row r="8" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="7"/>
       <c r="B8" s="42" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C8" s="44" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D8" s="45" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E8" s="46"/>
       <c r="F8" s="46"/>
@@ -4327,13 +4349,13 @@
     <row r="10" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="7"/>
       <c r="B10" s="47" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C10" s="44" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D10" s="48" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E10" s="48"/>
       <c r="F10" s="48"/>
@@ -4358,7 +4380,7 @@
       <c r="A12" s="7"/>
       <c r="B12" s="47"/>
       <c r="C12" s="8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D12" s="51" t="str">
         <f aca="false">Temps!D6</f>
@@ -4375,7 +4397,7 @@
       <c r="A13" s="7"/>
       <c r="B13" s="47"/>
       <c r="C13" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D13" s="51" t="str">
         <f aca="false">Temps!D7</f>
@@ -4392,10 +4414,10 @@
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="52" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D14" s="53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E14" s="54" t="n">
         <f aca="false">VLOOKUP(Évaluateur!D14,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -4414,10 +4436,10 @@
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="C15" s="52" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D15" s="53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E15" s="54" t="n">
         <f aca="false">VLOOKUP(Évaluateur!D15,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -4433,10 +4455,10 @@
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
       <c r="C16" s="52" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D16" s="53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E16" s="54" t="n">
         <f aca="false">VLOOKUP(Évaluateur!D16,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -4452,10 +4474,10 @@
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" s="52" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D17" s="53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E17" s="54" t="n">
         <f aca="false">VLOOKUP(Évaluateur!D17,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -4471,10 +4493,10 @@
       <c r="A18" s="7"/>
       <c r="B18" s="8"/>
       <c r="C18" s="52" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D18" s="53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E18" s="54" t="n">
         <f aca="false">VLOOKUP(Évaluateur!D18,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -4490,10 +4512,10 @@
       <c r="A19" s="7"/>
       <c r="B19" s="8"/>
       <c r="C19" s="52" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D19" s="53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E19" s="54" t="n">
         <f aca="false">VLOOKUP(Évaluateur!D19,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -4509,10 +4531,10 @@
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="52" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D20" s="53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E20" s="54" t="n">
         <f aca="false">VLOOKUP(Évaluateur!D20,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -4528,10 +4550,10 @@
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="52" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D21" s="53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E21" s="54" t="n">
         <f aca="false">VLOOKUP(Évaluateur!D21,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -4547,10 +4569,10 @@
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
       <c r="C22" s="52" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D22" s="53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E22" s="54" t="n">
         <f aca="false">VLOOKUP(Évaluateur!D22,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -4566,10 +4588,10 @@
       <c r="A23" s="7"/>
       <c r="B23" s="8"/>
       <c r="C23" s="52" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D23" s="53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E23" s="54" t="n">
         <f aca="false">VLOOKUP(Évaluateur!D23,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -4585,10 +4607,10 @@
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
       <c r="C24" s="52" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D24" s="53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E24" s="54" t="n">
         <f aca="false">VLOOKUP(Évaluateur!D24,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -4604,10 +4626,10 @@
       <c r="A25" s="7"/>
       <c r="B25" s="8"/>
       <c r="C25" s="52" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D25" s="53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E25" s="54" t="n">
         <f aca="false">VLOOKUP(Évaluateur!D25,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -4623,10 +4645,10 @@
       <c r="A26" s="7"/>
       <c r="B26" s="8"/>
       <c r="C26" s="52" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D26" s="53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E26" s="54" t="n">
         <f aca="false">VLOOKUP(Évaluateur!D26,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -4642,10 +4664,10 @@
       <c r="A27" s="7"/>
       <c r="B27" s="8"/>
       <c r="C27" s="52" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D27" s="53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E27" s="54" t="n">
         <f aca="false">VLOOKUP(Évaluateur!D27,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -4661,10 +4683,10 @@
       <c r="A28" s="7"/>
       <c r="B28" s="8"/>
       <c r="C28" s="52" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D28" s="53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E28" s="54" t="n">
         <f aca="false">VLOOKUP(Évaluateur!D28,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -4692,7 +4714,7 @@
       <c r="A30" s="7"/>
       <c r="B30" s="8"/>
       <c r="C30" s="56" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D30" s="57"/>
       <c r="E30" s="57"/>
@@ -4840,7 +4862,7 @@
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
       <c r="C2" s="39" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" s="39"/>
       <c r="E2" s="39"/>
@@ -4901,13 +4923,13 @@
     <row r="7" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="7"/>
       <c r="B7" s="47" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D7" s="48" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E7" s="48"/>
       <c r="F7" s="48"/>
@@ -4932,10 +4954,10 @@
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D9" s="59" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E9" s="59"/>
       <c r="F9" s="59"/>
@@ -4948,10 +4970,10 @@
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D10" s="59" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E10" s="59"/>
       <c r="F10" s="59"/>
@@ -4964,10 +4986,10 @@
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="52" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D11" s="53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E11" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 1'!D11,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -4986,10 +5008,10 @@
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="52" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D12" s="53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E12" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 1'!D12,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5005,10 +5027,10 @@
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
       <c r="C13" s="52" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D13" s="53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E13" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 1'!D13,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5024,10 +5046,10 @@
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="52" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D14" s="53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E14" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 1'!D14,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5043,10 +5065,10 @@
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="C15" s="52" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D15" s="53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E15" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 1'!D15,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5062,10 +5084,10 @@
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
       <c r="C16" s="52" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D16" s="53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E16" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 1'!D16,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5081,10 +5103,10 @@
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" s="52" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D17" s="53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E17" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 1'!D17,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5100,10 +5122,10 @@
       <c r="A18" s="7"/>
       <c r="B18" s="8"/>
       <c r="C18" s="52" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D18" s="53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E18" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 1'!D18,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5119,10 +5141,10 @@
       <c r="A19" s="7"/>
       <c r="B19" s="8"/>
       <c r="C19" s="52" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D19" s="53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E19" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 1'!D19,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5138,10 +5160,10 @@
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="52" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D20" s="53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E20" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 1'!D20,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5157,10 +5179,10 @@
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="52" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D21" s="53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E21" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 1'!D21,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5176,10 +5198,10 @@
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
       <c r="C22" s="52" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D22" s="53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E22" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 1'!D22,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5195,10 +5217,10 @@
       <c r="A23" s="7"/>
       <c r="B23" s="8"/>
       <c r="C23" s="52" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D23" s="53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E23" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 1'!D23,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5214,10 +5236,10 @@
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
       <c r="C24" s="52" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D24" s="53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E24" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 1'!D24,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5233,10 +5255,10 @@
       <c r="A25" s="7"/>
       <c r="B25" s="8"/>
       <c r="C25" s="52" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D25" s="53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E25" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 1'!D25,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5264,7 +5286,7 @@
       <c r="A27" s="7"/>
       <c r="B27" s="8"/>
       <c r="C27" s="56" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D27" s="61"/>
       <c r="E27" s="61"/>
@@ -5410,7 +5432,7 @@
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
       <c r="C2" s="39" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" s="39"/>
       <c r="E2" s="39"/>
@@ -5471,13 +5493,13 @@
     <row r="7" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="7"/>
       <c r="B7" s="47" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D7" s="48" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E7" s="48"/>
       <c r="F7" s="48"/>
@@ -5502,10 +5524,10 @@
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D9" s="59" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E9" s="59"/>
       <c r="F9" s="59"/>
@@ -5518,10 +5540,10 @@
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D10" s="59" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E10" s="59"/>
       <c r="F10" s="59"/>
@@ -5534,10 +5556,10 @@
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="52" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D11" s="53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E11" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 2'!D11,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5556,10 +5578,10 @@
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="52" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D12" s="53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E12" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 2'!D12,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5575,10 +5597,10 @@
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
       <c r="C13" s="52" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D13" s="53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E13" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 2'!D13,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5594,10 +5616,10 @@
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="52" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D14" s="53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E14" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 2'!D14,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5613,10 +5635,10 @@
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="C15" s="52" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D15" s="53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E15" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 2'!D15,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5632,10 +5654,10 @@
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
       <c r="C16" s="52" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D16" s="53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E16" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 2'!D16,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5651,10 +5673,10 @@
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" s="52" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D17" s="53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E17" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 2'!D17,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5670,10 +5692,10 @@
       <c r="A18" s="7"/>
       <c r="B18" s="8"/>
       <c r="C18" s="52" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D18" s="53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E18" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 2'!D18,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5689,10 +5711,10 @@
       <c r="A19" s="7"/>
       <c r="B19" s="8"/>
       <c r="C19" s="52" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D19" s="53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E19" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 2'!D19,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5708,10 +5730,10 @@
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="52" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D20" s="53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E20" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 2'!D20,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5727,10 +5749,10 @@
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="52" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D21" s="53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E21" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 2'!D21,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5746,10 +5768,10 @@
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
       <c r="C22" s="52" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D22" s="53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E22" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 2'!D22,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5765,10 +5787,10 @@
       <c r="A23" s="7"/>
       <c r="B23" s="8"/>
       <c r="C23" s="52" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D23" s="53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E23" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 2'!D23,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5784,10 +5806,10 @@
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
       <c r="C24" s="52" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D24" s="53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E24" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 2'!D24,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5803,10 +5825,10 @@
       <c r="A25" s="7"/>
       <c r="B25" s="8"/>
       <c r="C25" s="52" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D25" s="53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E25" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 2'!D25,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -5834,7 +5856,7 @@
       <c r="A27" s="7"/>
       <c r="B27" s="8"/>
       <c r="C27" s="56" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D27" s="57"/>
       <c r="E27" s="57"/>
@@ -5980,7 +6002,7 @@
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
       <c r="C2" s="39" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" s="39"/>
       <c r="E2" s="39"/>
@@ -6041,13 +6063,13 @@
     <row r="7" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="7"/>
       <c r="B7" s="47" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D7" s="48" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E7" s="48"/>
       <c r="F7" s="48"/>
@@ -6072,10 +6094,10 @@
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D9" s="59" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E9" s="59"/>
       <c r="F9" s="59"/>
@@ -6088,10 +6110,10 @@
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D10" s="59" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E10" s="59"/>
       <c r="F10" s="59"/>
@@ -6104,10 +6126,10 @@
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="52" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D11" s="53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E11" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 3'!D11,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6126,10 +6148,10 @@
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="52" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D12" s="53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E12" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 3'!D12,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6145,10 +6167,10 @@
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
       <c r="C13" s="52" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D13" s="53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E13" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 3'!D13,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6164,10 +6186,10 @@
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="52" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D14" s="53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E14" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 3'!D14,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6183,10 +6205,10 @@
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="C15" s="52" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D15" s="53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E15" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 3'!D15,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6202,10 +6224,10 @@
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
       <c r="C16" s="52" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D16" s="53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E16" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 3'!D16,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6221,10 +6243,10 @@
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" s="52" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D17" s="53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E17" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 3'!D17,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6240,10 +6262,10 @@
       <c r="A18" s="7"/>
       <c r="B18" s="8"/>
       <c r="C18" s="52" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D18" s="53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E18" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 3'!D18,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6259,10 +6281,10 @@
       <c r="A19" s="7"/>
       <c r="B19" s="8"/>
       <c r="C19" s="52" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D19" s="53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E19" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 3'!D19,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6278,10 +6300,10 @@
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="52" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D20" s="53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E20" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 3'!D20,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6297,10 +6319,10 @@
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="52" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D21" s="53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E21" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 3'!D21,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6316,10 +6338,10 @@
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
       <c r="C22" s="52" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D22" s="53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E22" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 3'!D22,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6335,10 +6357,10 @@
       <c r="A23" s="7"/>
       <c r="B23" s="8"/>
       <c r="C23" s="52" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D23" s="53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E23" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 3'!D23,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6354,10 +6376,10 @@
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
       <c r="C24" s="52" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D24" s="53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E24" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 3'!D24,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6373,10 +6395,10 @@
       <c r="A25" s="7"/>
       <c r="B25" s="8"/>
       <c r="C25" s="52" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D25" s="53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E25" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 3'!D25,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6404,7 +6426,7 @@
       <c r="A27" s="7"/>
       <c r="B27" s="8"/>
       <c r="C27" s="56" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D27" s="57"/>
       <c r="E27" s="57"/>
@@ -6550,7 +6572,7 @@
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
       <c r="C2" s="39" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" s="39"/>
       <c r="E2" s="39"/>
@@ -6611,13 +6633,13 @@
     <row r="7" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="7"/>
       <c r="B7" s="47" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D7" s="48" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E7" s="48"/>
       <c r="F7" s="48"/>
@@ -6642,10 +6664,10 @@
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D9" s="59" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E9" s="59"/>
       <c r="F9" s="59"/>
@@ -6658,10 +6680,10 @@
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D10" s="59" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E10" s="59"/>
       <c r="F10" s="59"/>
@@ -6674,10 +6696,10 @@
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="52" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D11" s="53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E11" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 4'!D11,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6696,10 +6718,10 @@
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="52" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D12" s="53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E12" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 4'!D12,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6715,10 +6737,10 @@
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
       <c r="C13" s="52" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D13" s="53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E13" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 4'!D13,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6734,10 +6756,10 @@
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="52" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D14" s="53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E14" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 4'!D14,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6753,10 +6775,10 @@
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="C15" s="52" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D15" s="53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E15" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 4'!D15,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6772,10 +6794,10 @@
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
       <c r="C16" s="52" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D16" s="53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E16" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 4'!D16,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6791,10 +6813,10 @@
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" s="52" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D17" s="53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E17" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 4'!D17,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6810,10 +6832,10 @@
       <c r="A18" s="7"/>
       <c r="B18" s="8"/>
       <c r="C18" s="52" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D18" s="53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E18" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 4'!D18,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6829,10 +6851,10 @@
       <c r="A19" s="7"/>
       <c r="B19" s="8"/>
       <c r="C19" s="52" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D19" s="53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E19" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 4'!D19,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6848,10 +6870,10 @@
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="52" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D20" s="53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E20" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 4'!D20,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6867,10 +6889,10 @@
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="52" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D21" s="53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E21" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 4'!D21,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6886,10 +6908,10 @@
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
       <c r="C22" s="52" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D22" s="53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E22" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 4'!D22,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6905,10 +6927,10 @@
       <c r="A23" s="7"/>
       <c r="B23" s="8"/>
       <c r="C23" s="52" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D23" s="53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E23" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 4'!D23,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6924,10 +6946,10 @@
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
       <c r="C24" s="52" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D24" s="53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E24" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 4'!D24,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6943,10 +6965,10 @@
       <c r="A25" s="7"/>
       <c r="B25" s="8"/>
       <c r="C25" s="52" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D25" s="53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E25" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 4'!D25,Menu!$B$4:$C$8,2,FALSE())</f>
@@ -6974,7 +6996,7 @@
       <c r="A27" s="7"/>
       <c r="B27" s="8"/>
       <c r="C27" s="56" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D27" s="57"/>
       <c r="E27" s="57"/>
@@ -7103,7 +7125,7 @@
   <sheetData>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>0</v>
@@ -7111,7 +7133,7 @@
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>1</v>
@@ -7119,7 +7141,7 @@
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>2</v>
@@ -7127,7 +7149,7 @@
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>3</v>
@@ -7135,7 +7157,7 @@
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>4</v>
@@ -7143,7 +7165,7 @@
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>5</v>

--- a/FichesTemps/VictorTurgeon-02.xlsx
+++ b/FichesTemps/VictorTurgeon-02.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="87">
   <si>
     <t xml:space="preserve">Feuille de temps - 420-6DY-HY Projets</t>
   </si>
@@ -1045,9 +1045,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>119160</xdr:colOff>
+      <xdr:colOff>118800</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>23760</xdr:rowOff>
+      <xdr:rowOff>23400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1061,7 +1061,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2595600" cy="842760"/>
+          <a:ext cx="2595240" cy="842400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1087,9 +1087,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>528840</xdr:colOff>
+      <xdr:colOff>528480</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>214200</xdr:rowOff>
+      <xdr:rowOff>213840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1103,7 +1103,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2656800" cy="785880"/>
+          <a:ext cx="2656440" cy="785520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1129,9 +1129,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>528840</xdr:colOff>
+      <xdr:colOff>528480</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>214200</xdr:rowOff>
+      <xdr:rowOff>213840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1145,7 +1145,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2656800" cy="785880"/>
+          <a:ext cx="2656440" cy="785520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1171,9 +1171,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>528840</xdr:colOff>
+      <xdr:colOff>528480</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>214200</xdr:rowOff>
+      <xdr:rowOff>213840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1187,7 +1187,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2656800" cy="785880"/>
+          <a:ext cx="2656440" cy="785520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1213,9 +1213,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>528840</xdr:colOff>
+      <xdr:colOff>528480</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>214200</xdr:rowOff>
+      <xdr:rowOff>213840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1229,7 +1229,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2656800" cy="785880"/>
+          <a:ext cx="2656440" cy="785520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1255,9 +1255,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>528840</xdr:colOff>
+      <xdr:colOff>528480</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>214200</xdr:rowOff>
+      <xdr:rowOff>213840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1271,7 +1271,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2656800" cy="785880"/>
+          <a:ext cx="2656440" cy="785520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1294,7 +1294,7 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
+      <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1379,7 +1379,7 @@
       </c>
       <c r="C9" s="23" t="n">
         <f aca="false">SUM(C11:C462)</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D9" s="24" t="s">
         <v>7</v>
@@ -1543,10 +1543,18 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="33"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="34"/>
+      <c r="A24" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="34" t="n">
+        <v>34</v>
+      </c>
+      <c r="C24" s="35" t="n">
+        <v>2</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="33"/>

--- a/FichesTemps/VictorTurgeon-02.xlsx
+++ b/FichesTemps/VictorTurgeon-02.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Temps" sheetId="1" state="visible" r:id="rId2"/>
@@ -713,7 +713,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -958,6 +958,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
@@ -1045,9 +1049,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>118800</xdr:colOff>
+      <xdr:colOff>118440</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>23400</xdr:rowOff>
+      <xdr:rowOff>23040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1061,7 +1065,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2595240" cy="842400"/>
+          <a:ext cx="2300400" cy="842040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1087,9 +1091,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>528480</xdr:colOff>
+      <xdr:colOff>528120</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>213840</xdr:rowOff>
+      <xdr:rowOff>213480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1103,7 +1107,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2656440" cy="785520"/>
+          <a:ext cx="2402640" cy="785160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1129,9 +1133,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>528480</xdr:colOff>
+      <xdr:colOff>528120</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>213840</xdr:rowOff>
+      <xdr:rowOff>213480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1145,7 +1149,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2656440" cy="785520"/>
+          <a:ext cx="2402640" cy="785160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1171,9 +1175,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>528480</xdr:colOff>
+      <xdr:colOff>528120</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>213840</xdr:rowOff>
+      <xdr:rowOff>213480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1187,7 +1191,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2656440" cy="785520"/>
+          <a:ext cx="2402640" cy="785160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1213,9 +1217,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>528480</xdr:colOff>
+      <xdr:colOff>528120</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>213840</xdr:rowOff>
+      <xdr:rowOff>213480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1229,7 +1233,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2656440" cy="785520"/>
+          <a:ext cx="2402640" cy="785160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1255,9 +1259,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>528480</xdr:colOff>
+      <xdr:colOff>528120</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>213840</xdr:rowOff>
+      <xdr:rowOff>213480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1271,7 +1275,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2656440" cy="785520"/>
+          <a:ext cx="2402640" cy="785160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1293,8 +1297,8 @@
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D27" activeCellId="1" sqref="E11:E25 D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4223,7 +4227,7 @@
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
+      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E11:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.59765625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4843,7 +4847,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+      <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E11:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.59765625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5000,12 +5004,11 @@
         <v>36</v>
       </c>
       <c r="E11" s="54" t="n">
-        <f aca="false">VLOOKUP('Coéquipier 1'!D11,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F11" s="60" t="n">
         <f aca="false">IFERROR(SUM(E11:E25),"à évaluer")</f>
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="G11" s="60"/>
       <c r="H11" s="60"/>
@@ -5021,9 +5024,8 @@
       <c r="D12" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="54" t="n">
-        <f aca="false">VLOOKUP('Coéquipier 1'!D12,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+      <c r="E12" s="61" t="n">
+        <v>5</v>
       </c>
       <c r="F12" s="60"/>
       <c r="G12" s="60"/>
@@ -5040,9 +5042,8 @@
       <c r="D13" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="54" t="n">
-        <f aca="false">VLOOKUP('Coéquipier 1'!D13,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+      <c r="E13" s="61" t="n">
+        <v>5</v>
       </c>
       <c r="F13" s="60"/>
       <c r="G13" s="60"/>
@@ -5059,9 +5060,8 @@
       <c r="D14" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="54" t="n">
-        <f aca="false">VLOOKUP('Coéquipier 1'!D14,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+      <c r="E14" s="61" t="n">
+        <v>5</v>
       </c>
       <c r="F14" s="60"/>
       <c r="G14" s="60"/>
@@ -5078,9 +5078,8 @@
       <c r="D15" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="54" t="n">
-        <f aca="false">VLOOKUP('Coéquipier 1'!D15,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+      <c r="E15" s="61" t="n">
+        <v>5</v>
       </c>
       <c r="F15" s="60"/>
       <c r="G15" s="60"/>
@@ -5097,9 +5096,8 @@
       <c r="D16" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="54" t="n">
-        <f aca="false">VLOOKUP('Coéquipier 1'!D16,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+      <c r="E16" s="61" t="n">
+        <v>5</v>
       </c>
       <c r="F16" s="60"/>
       <c r="G16" s="60"/>
@@ -5116,9 +5114,8 @@
       <c r="D17" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="54" t="n">
-        <f aca="false">VLOOKUP('Coéquipier 1'!D17,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+      <c r="E17" s="61" t="n">
+        <v>5</v>
       </c>
       <c r="F17" s="60"/>
       <c r="G17" s="60"/>
@@ -5135,9 +5132,8 @@
       <c r="D18" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="54" t="n">
-        <f aca="false">VLOOKUP('Coéquipier 1'!D18,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+      <c r="E18" s="61" t="n">
+        <v>5</v>
       </c>
       <c r="F18" s="60"/>
       <c r="G18" s="60"/>
@@ -5154,9 +5150,8 @@
       <c r="D19" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="E19" s="54" t="n">
-        <f aca="false">VLOOKUP('Coéquipier 1'!D19,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+      <c r="E19" s="61" t="n">
+        <v>5</v>
       </c>
       <c r="F19" s="60"/>
       <c r="G19" s="60"/>
@@ -5173,9 +5168,8 @@
       <c r="D20" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="54" t="n">
-        <f aca="false">VLOOKUP('Coéquipier 1'!D20,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+      <c r="E20" s="61" t="n">
+        <v>5</v>
       </c>
       <c r="F20" s="60"/>
       <c r="G20" s="60"/>
@@ -5192,9 +5186,8 @@
       <c r="D21" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="54" t="n">
-        <f aca="false">VLOOKUP('Coéquipier 1'!D21,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+      <c r="E21" s="61" t="n">
+        <v>5</v>
       </c>
       <c r="F21" s="60"/>
       <c r="G21" s="60"/>
@@ -5211,9 +5204,8 @@
       <c r="D22" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="54" t="n">
-        <f aca="false">VLOOKUP('Coéquipier 1'!D22,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+      <c r="E22" s="61" t="n">
+        <v>5</v>
       </c>
       <c r="F22" s="60"/>
       <c r="G22" s="60"/>
@@ -5230,9 +5222,8 @@
       <c r="D23" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="54" t="n">
-        <f aca="false">VLOOKUP('Coéquipier 1'!D23,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+      <c r="E23" s="61" t="n">
+        <v>5</v>
       </c>
       <c r="F23" s="60"/>
       <c r="G23" s="60"/>
@@ -5249,9 +5240,8 @@
       <c r="D24" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="54" t="n">
-        <f aca="false">VLOOKUP('Coéquipier 1'!D24,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+      <c r="E24" s="61" t="n">
+        <v>5</v>
       </c>
       <c r="F24" s="60"/>
       <c r="G24" s="60"/>
@@ -5268,9 +5258,8 @@
       <c r="D25" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="E25" s="54" t="n">
-        <f aca="false">VLOOKUP('Coéquipier 1'!D25,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+      <c r="E25" s="61" t="n">
+        <v>5</v>
       </c>
       <c r="F25" s="60"/>
       <c r="G25" s="60"/>
@@ -5296,12 +5285,12 @@
       <c r="C27" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="61"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="62"/>
       <c r="J27" s="10"/>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5376,8 +5365,176 @@
     <mergeCell ref="F11:I25"/>
     <mergeCell ref="D27:I27"/>
   </mergeCells>
-  <conditionalFormatting sqref="E11:E25">
+  <conditionalFormatting sqref="E11">
     <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -5413,7 +5570,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.59765625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5570,12 +5727,11 @@
         <v>36</v>
       </c>
       <c r="E11" s="54" t="n">
-        <f aca="false">VLOOKUP('Coéquipier 2'!D11,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F11" s="60" t="n">
         <f aca="false">IFERROR(SUM(E11:E25),"à évaluer")</f>
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="G11" s="60"/>
       <c r="H11" s="60"/>
@@ -5591,9 +5747,8 @@
       <c r="D12" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="54" t="n">
-        <f aca="false">VLOOKUP('Coéquipier 2'!D12,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+      <c r="E12" s="61" t="n">
+        <v>5</v>
       </c>
       <c r="F12" s="60"/>
       <c r="G12" s="60"/>
@@ -5610,9 +5765,8 @@
       <c r="D13" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="54" t="n">
-        <f aca="false">VLOOKUP('Coéquipier 2'!D13,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+      <c r="E13" s="61" t="n">
+        <v>5</v>
       </c>
       <c r="F13" s="60"/>
       <c r="G13" s="60"/>
@@ -5629,9 +5783,8 @@
       <c r="D14" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="54" t="n">
-        <f aca="false">VLOOKUP('Coéquipier 2'!D14,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+      <c r="E14" s="61" t="n">
+        <v>5</v>
       </c>
       <c r="F14" s="60"/>
       <c r="G14" s="60"/>
@@ -5648,9 +5801,8 @@
       <c r="D15" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="54" t="n">
-        <f aca="false">VLOOKUP('Coéquipier 2'!D15,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+      <c r="E15" s="61" t="n">
+        <v>5</v>
       </c>
       <c r="F15" s="60"/>
       <c r="G15" s="60"/>
@@ -5667,9 +5819,8 @@
       <c r="D16" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="54" t="n">
-        <f aca="false">VLOOKUP('Coéquipier 2'!D16,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+      <c r="E16" s="61" t="n">
+        <v>5</v>
       </c>
       <c r="F16" s="60"/>
       <c r="G16" s="60"/>
@@ -5686,9 +5837,8 @@
       <c r="D17" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="54" t="n">
-        <f aca="false">VLOOKUP('Coéquipier 2'!D17,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+      <c r="E17" s="61" t="n">
+        <v>5</v>
       </c>
       <c r="F17" s="60"/>
       <c r="G17" s="60"/>
@@ -5705,9 +5855,8 @@
       <c r="D18" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="54" t="n">
-        <f aca="false">VLOOKUP('Coéquipier 2'!D18,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+      <c r="E18" s="61" t="n">
+        <v>5</v>
       </c>
       <c r="F18" s="60"/>
       <c r="G18" s="60"/>
@@ -5724,9 +5873,8 @@
       <c r="D19" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="E19" s="54" t="n">
-        <f aca="false">VLOOKUP('Coéquipier 2'!D19,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+      <c r="E19" s="61" t="n">
+        <v>5</v>
       </c>
       <c r="F19" s="60"/>
       <c r="G19" s="60"/>
@@ -5743,9 +5891,8 @@
       <c r="D20" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="54" t="n">
-        <f aca="false">VLOOKUP('Coéquipier 2'!D20,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+      <c r="E20" s="61" t="n">
+        <v>5</v>
       </c>
       <c r="F20" s="60"/>
       <c r="G20" s="60"/>
@@ -5762,9 +5909,8 @@
       <c r="D21" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="54" t="n">
-        <f aca="false">VLOOKUP('Coéquipier 2'!D21,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+      <c r="E21" s="61" t="n">
+        <v>5</v>
       </c>
       <c r="F21" s="60"/>
       <c r="G21" s="60"/>
@@ -5781,9 +5927,8 @@
       <c r="D22" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="54" t="n">
-        <f aca="false">VLOOKUP('Coéquipier 2'!D22,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+      <c r="E22" s="61" t="n">
+        <v>5</v>
       </c>
       <c r="F22" s="60"/>
       <c r="G22" s="60"/>
@@ -5800,9 +5945,8 @@
       <c r="D23" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="54" t="n">
-        <f aca="false">VLOOKUP('Coéquipier 2'!D23,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+      <c r="E23" s="61" t="n">
+        <v>5</v>
       </c>
       <c r="F23" s="60"/>
       <c r="G23" s="60"/>
@@ -5819,9 +5963,8 @@
       <c r="D24" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="54" t="n">
-        <f aca="false">VLOOKUP('Coéquipier 2'!D24,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+      <c r="E24" s="61" t="n">
+        <v>5</v>
       </c>
       <c r="F24" s="60"/>
       <c r="G24" s="60"/>
@@ -5838,9 +5981,8 @@
       <c r="D25" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="E25" s="54" t="n">
-        <f aca="false">VLOOKUP('Coéquipier 2'!D25,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+      <c r="E25" s="61" t="n">
+        <v>5</v>
       </c>
       <c r="F25" s="60"/>
       <c r="G25" s="60"/>
@@ -5946,8 +6088,176 @@
     <mergeCell ref="F11:I25"/>
     <mergeCell ref="D27:I27"/>
   </mergeCells>
-  <conditionalFormatting sqref="E11:E25">
+  <conditionalFormatting sqref="E11">
     <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25">
+    <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -5983,7 +6293,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.59765625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6140,12 +6450,11 @@
         <v>36</v>
       </c>
       <c r="E11" s="54" t="n">
-        <f aca="false">VLOOKUP('Coéquipier 3'!D11,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F11" s="60" t="n">
         <f aca="false">IFERROR(SUM(E11:E25),"à évaluer")</f>
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="G11" s="60"/>
       <c r="H11" s="60"/>
@@ -6161,9 +6470,8 @@
       <c r="D12" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="54" t="n">
-        <f aca="false">VLOOKUP('Coéquipier 3'!D12,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+      <c r="E12" s="61" t="n">
+        <v>5</v>
       </c>
       <c r="F12" s="60"/>
       <c r="G12" s="60"/>
@@ -6180,9 +6488,8 @@
       <c r="D13" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="54" t="n">
-        <f aca="false">VLOOKUP('Coéquipier 3'!D13,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+      <c r="E13" s="61" t="n">
+        <v>5</v>
       </c>
       <c r="F13" s="60"/>
       <c r="G13" s="60"/>
@@ -6199,9 +6506,8 @@
       <c r="D14" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="54" t="n">
-        <f aca="false">VLOOKUP('Coéquipier 3'!D14,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+      <c r="E14" s="61" t="n">
+        <v>5</v>
       </c>
       <c r="F14" s="60"/>
       <c r="G14" s="60"/>
@@ -6218,9 +6524,8 @@
       <c r="D15" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="54" t="n">
-        <f aca="false">VLOOKUP('Coéquipier 3'!D15,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+      <c r="E15" s="61" t="n">
+        <v>5</v>
       </c>
       <c r="F15" s="60"/>
       <c r="G15" s="60"/>
@@ -6237,9 +6542,8 @@
       <c r="D16" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="54" t="n">
-        <f aca="false">VLOOKUP('Coéquipier 3'!D16,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+      <c r="E16" s="61" t="n">
+        <v>5</v>
       </c>
       <c r="F16" s="60"/>
       <c r="G16" s="60"/>
@@ -6256,9 +6560,8 @@
       <c r="D17" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="54" t="n">
-        <f aca="false">VLOOKUP('Coéquipier 3'!D17,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+      <c r="E17" s="61" t="n">
+        <v>5</v>
       </c>
       <c r="F17" s="60"/>
       <c r="G17" s="60"/>
@@ -6275,9 +6578,8 @@
       <c r="D18" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="54" t="n">
-        <f aca="false">VLOOKUP('Coéquipier 3'!D18,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+      <c r="E18" s="61" t="n">
+        <v>5</v>
       </c>
       <c r="F18" s="60"/>
       <c r="G18" s="60"/>
@@ -6294,9 +6596,8 @@
       <c r="D19" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="E19" s="54" t="n">
-        <f aca="false">VLOOKUP('Coéquipier 3'!D19,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+      <c r="E19" s="61" t="n">
+        <v>5</v>
       </c>
       <c r="F19" s="60"/>
       <c r="G19" s="60"/>
@@ -6313,9 +6614,8 @@
       <c r="D20" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="54" t="n">
-        <f aca="false">VLOOKUP('Coéquipier 3'!D20,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+      <c r="E20" s="61" t="n">
+        <v>5</v>
       </c>
       <c r="F20" s="60"/>
       <c r="G20" s="60"/>
@@ -6332,9 +6632,8 @@
       <c r="D21" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="54" t="n">
-        <f aca="false">VLOOKUP('Coéquipier 3'!D21,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+      <c r="E21" s="61" t="n">
+        <v>5</v>
       </c>
       <c r="F21" s="60"/>
       <c r="G21" s="60"/>
@@ -6351,9 +6650,8 @@
       <c r="D22" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="54" t="n">
-        <f aca="false">VLOOKUP('Coéquipier 3'!D22,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+      <c r="E22" s="61" t="n">
+        <v>5</v>
       </c>
       <c r="F22" s="60"/>
       <c r="G22" s="60"/>
@@ -6370,9 +6668,8 @@
       <c r="D23" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="54" t="n">
-        <f aca="false">VLOOKUP('Coéquipier 3'!D23,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+      <c r="E23" s="61" t="n">
+        <v>5</v>
       </c>
       <c r="F23" s="60"/>
       <c r="G23" s="60"/>
@@ -6389,9 +6686,8 @@
       <c r="D24" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="54" t="n">
-        <f aca="false">VLOOKUP('Coéquipier 3'!D24,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+      <c r="E24" s="61" t="n">
+        <v>5</v>
       </c>
       <c r="F24" s="60"/>
       <c r="G24" s="60"/>
@@ -6408,9 +6704,8 @@
       <c r="D25" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="E25" s="54" t="n">
-        <f aca="false">VLOOKUP('Coéquipier 3'!D25,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+      <c r="E25" s="61" t="n">
+        <v>5</v>
       </c>
       <c r="F25" s="60"/>
       <c r="G25" s="60"/>
@@ -6516,8 +6811,176 @@
     <mergeCell ref="F11:I25"/>
     <mergeCell ref="D27:I27"/>
   </mergeCells>
-  <conditionalFormatting sqref="E11:E25">
+  <conditionalFormatting sqref="E11">
     <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25">
+    <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -6552,8 +7015,8 @@
   </sheetPr>
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.59765625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6710,12 +7173,11 @@
         <v>36</v>
       </c>
       <c r="E11" s="54" t="n">
-        <f aca="false">VLOOKUP('Coéquipier 4'!D11,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F11" s="60" t="n">
         <f aca="false">IFERROR(SUM(E11:E25),"à évaluer")</f>
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="G11" s="60"/>
       <c r="H11" s="60"/>
@@ -6731,9 +7193,8 @@
       <c r="D12" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="54" t="n">
-        <f aca="false">VLOOKUP('Coéquipier 4'!D12,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+      <c r="E12" s="61" t="n">
+        <v>5</v>
       </c>
       <c r="F12" s="60"/>
       <c r="G12" s="60"/>
@@ -6750,9 +7211,8 @@
       <c r="D13" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="54" t="n">
-        <f aca="false">VLOOKUP('Coéquipier 4'!D13,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+      <c r="E13" s="61" t="n">
+        <v>5</v>
       </c>
       <c r="F13" s="60"/>
       <c r="G13" s="60"/>
@@ -6769,9 +7229,8 @@
       <c r="D14" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="54" t="n">
-        <f aca="false">VLOOKUP('Coéquipier 4'!D14,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+      <c r="E14" s="61" t="n">
+        <v>5</v>
       </c>
       <c r="F14" s="60"/>
       <c r="G14" s="60"/>
@@ -6788,9 +7247,8 @@
       <c r="D15" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="54" t="n">
-        <f aca="false">VLOOKUP('Coéquipier 4'!D15,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+      <c r="E15" s="61" t="n">
+        <v>5</v>
       </c>
       <c r="F15" s="60"/>
       <c r="G15" s="60"/>
@@ -6807,9 +7265,8 @@
       <c r="D16" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="54" t="n">
-        <f aca="false">VLOOKUP('Coéquipier 4'!D16,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+      <c r="E16" s="61" t="n">
+        <v>5</v>
       </c>
       <c r="F16" s="60"/>
       <c r="G16" s="60"/>
@@ -6826,9 +7283,8 @@
       <c r="D17" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="54" t="n">
-        <f aca="false">VLOOKUP('Coéquipier 4'!D17,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+      <c r="E17" s="61" t="n">
+        <v>5</v>
       </c>
       <c r="F17" s="60"/>
       <c r="G17" s="60"/>
@@ -6845,9 +7301,8 @@
       <c r="D18" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="54" t="n">
-        <f aca="false">VLOOKUP('Coéquipier 4'!D18,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+      <c r="E18" s="61" t="n">
+        <v>5</v>
       </c>
       <c r="F18" s="60"/>
       <c r="G18" s="60"/>
@@ -6864,9 +7319,8 @@
       <c r="D19" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="E19" s="54" t="n">
-        <f aca="false">VLOOKUP('Coéquipier 4'!D19,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+      <c r="E19" s="61" t="n">
+        <v>5</v>
       </c>
       <c r="F19" s="60"/>
       <c r="G19" s="60"/>
@@ -6883,9 +7337,8 @@
       <c r="D20" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="54" t="n">
-        <f aca="false">VLOOKUP('Coéquipier 4'!D20,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+      <c r="E20" s="61" t="n">
+        <v>5</v>
       </c>
       <c r="F20" s="60"/>
       <c r="G20" s="60"/>
@@ -6902,9 +7355,8 @@
       <c r="D21" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="54" t="n">
-        <f aca="false">VLOOKUP('Coéquipier 4'!D21,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+      <c r="E21" s="61" t="n">
+        <v>5</v>
       </c>
       <c r="F21" s="60"/>
       <c r="G21" s="60"/>
@@ -6921,9 +7373,8 @@
       <c r="D22" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="54" t="n">
-        <f aca="false">VLOOKUP('Coéquipier 4'!D22,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+      <c r="E22" s="61" t="n">
+        <v>5</v>
       </c>
       <c r="F22" s="60"/>
       <c r="G22" s="60"/>
@@ -6940,9 +7391,8 @@
       <c r="D23" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="54" t="n">
-        <f aca="false">VLOOKUP('Coéquipier 4'!D23,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+      <c r="E23" s="61" t="n">
+        <v>5</v>
       </c>
       <c r="F23" s="60"/>
       <c r="G23" s="60"/>
@@ -6959,9 +7409,8 @@
       <c r="D24" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="54" t="n">
-        <f aca="false">VLOOKUP('Coéquipier 4'!D24,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+      <c r="E24" s="61" t="n">
+        <v>5</v>
       </c>
       <c r="F24" s="60"/>
       <c r="G24" s="60"/>
@@ -6978,9 +7427,8 @@
       <c r="D25" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="E25" s="54" t="n">
-        <f aca="false">VLOOKUP('Coéquipier 4'!D25,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+      <c r="E25" s="61" t="n">
+        <v>5</v>
       </c>
       <c r="F25" s="60"/>
       <c r="G25" s="60"/>
@@ -7086,8 +7534,176 @@
     <mergeCell ref="F11:I25"/>
     <mergeCell ref="D27:I27"/>
   </mergeCells>
-  <conditionalFormatting sqref="E11:E25">
+  <conditionalFormatting sqref="E11">
     <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25">
+    <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7123,7 +7739,7 @@
   <dimension ref="B3:C8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G28" activeCellId="0" sqref="G28"/>
+      <selection pane="topLeft" activeCell="G28" activeCellId="1" sqref="E11:E25 G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.59765625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
